--- a/inst/dados_premissas/2023/fc_distribuidoras_mensal.xlsx
+++ b/inst/dados_premissas/2023/fc_distribuidoras_mensal.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E95FB-F5A9-438A-98B7-BFE9BF46B427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E65A6C-F68F-444A-941A-66F03B0F1060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$649</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -130,9 +133,6 @@
     <t>COCEL</t>
   </si>
   <si>
-    <t>FORCEL</t>
-  </si>
-  <si>
     <t>EFLUL</t>
   </si>
   <si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>EQUATORIAL GO</t>
+  </si>
+  <si>
+    <t>PACTO</t>
   </si>
 </sst>
 </file>
@@ -260,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,9 +303,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,26 +338,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,26 +373,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1615,7 +1584,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1629,7 +1598,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -1643,7 +1612,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1657,7 +1626,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -1671,7 +1640,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -1685,7 +1654,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -1699,7 +1668,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -1713,7 +1682,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -1727,7 +1696,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B82">
         <v>9</v>
@@ -1741,7 +1710,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -1755,7 +1724,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84">
         <v>11</v>
@@ -1769,7 +1738,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85">
         <v>12</v>
@@ -1951,7 +1920,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1965,7 +1934,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -1979,7 +1948,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -1993,7 +1962,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -2007,7 +1976,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -2021,7 +1990,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -2035,7 +2004,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -2049,7 +2018,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -2063,7 +2032,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -2077,7 +2046,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -2091,7 +2060,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B108">
         <v>11</v>
@@ -2105,7 +2074,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B109">
         <v>12</v>
@@ -5311,7 +5280,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -5325,7 +5294,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -5339,7 +5308,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -5353,7 +5322,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B341">
         <v>4</v>
@@ -5367,7 +5336,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B342">
         <v>5</v>
@@ -5381,7 +5350,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B343">
         <v>6</v>
@@ -5395,7 +5364,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B344">
         <v>7</v>
@@ -5409,7 +5378,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B345">
         <v>8</v>
@@ -5423,7 +5392,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B346">
         <v>9</v>
@@ -5437,7 +5406,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B347">
         <v>10</v>
@@ -5451,7 +5420,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B348">
         <v>11</v>
@@ -5465,7 +5434,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B349">
         <v>12</v>
@@ -6487,7 +6456,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -6501,7 +6470,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B423">
         <v>2</v>
@@ -6515,7 +6484,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B424">
         <v>3</v>
@@ -6529,7 +6498,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B425">
         <v>4</v>
@@ -6543,7 +6512,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B426">
         <v>5</v>
@@ -6557,7 +6526,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B427">
         <v>6</v>
@@ -6571,7 +6540,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B428">
         <v>7</v>
@@ -6585,7 +6554,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B429">
         <v>8</v>
@@ -6599,7 +6568,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B430">
         <v>9</v>
@@ -6613,7 +6582,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B431">
         <v>10</v>
@@ -6627,7 +6596,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B432">
         <v>11</v>
@@ -6641,7 +6610,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B433">
         <v>12</v>
@@ -6655,7 +6624,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -6669,7 +6638,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -6683,7 +6652,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B436">
         <v>3</v>
@@ -6697,7 +6666,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B437">
         <v>4</v>
@@ -6711,7 +6680,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B438">
         <v>5</v>
@@ -6725,7 +6694,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B439">
         <v>6</v>
@@ -6739,7 +6708,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B440">
         <v>7</v>
@@ -6753,7 +6722,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B441">
         <v>8</v>
@@ -6767,7 +6736,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B442">
         <v>9</v>
@@ -6781,7 +6750,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B443">
         <v>10</v>
@@ -6795,7 +6764,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B444">
         <v>11</v>
@@ -6809,7 +6778,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B445">
         <v>12</v>
@@ -6823,7 +6792,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -6837,7 +6806,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B447">
         <v>2</v>
@@ -6851,7 +6820,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B448">
         <v>3</v>
@@ -6865,7 +6834,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B449">
         <v>4</v>
@@ -6879,7 +6848,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B450">
         <v>5</v>
@@ -6893,7 +6862,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B451">
         <v>6</v>
@@ -6907,7 +6876,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B452">
         <v>7</v>
@@ -6921,7 +6890,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B453">
         <v>8</v>
@@ -6935,7 +6904,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B454">
         <v>9</v>
@@ -6949,7 +6918,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B455">
         <v>10</v>
@@ -6963,7 +6932,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B456">
         <v>11</v>
@@ -6977,7 +6946,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B457">
         <v>12</v>
@@ -6991,7 +6960,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -7005,7 +6974,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -7019,7 +6988,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B460">
         <v>3</v>
@@ -7033,7 +7002,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B461">
         <v>4</v>
@@ -7047,7 +7016,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B462">
         <v>5</v>
@@ -7061,7 +7030,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B463">
         <v>6</v>
@@ -7075,7 +7044,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B464">
         <v>7</v>
@@ -7089,7 +7058,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B465">
         <v>8</v>
@@ -7103,7 +7072,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B466">
         <v>9</v>
@@ -7117,7 +7086,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B467">
         <v>10</v>
@@ -7131,7 +7100,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B468">
         <v>11</v>
@@ -7145,7 +7114,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B469">
         <v>12</v>
@@ -7159,7 +7128,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -7173,7 +7142,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B471">
         <v>2</v>
@@ -7187,7 +7156,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B472">
         <v>3</v>
@@ -7201,7 +7170,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B473">
         <v>4</v>
@@ -7215,7 +7184,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B474">
         <v>5</v>
@@ -7229,7 +7198,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B475">
         <v>6</v>
@@ -7243,7 +7212,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B476">
         <v>7</v>
@@ -7257,7 +7226,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B477">
         <v>8</v>
@@ -7271,7 +7240,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B478">
         <v>9</v>
@@ -7285,7 +7254,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B479">
         <v>10</v>
@@ -7299,7 +7268,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B480">
         <v>11</v>
@@ -7313,7 +7282,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B481">
         <v>12</v>
@@ -7327,7 +7296,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -7341,7 +7310,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -7355,7 +7324,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B484">
         <v>3</v>
@@ -7369,7 +7338,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B485">
         <v>4</v>
@@ -7383,7 +7352,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B486">
         <v>5</v>
@@ -7397,7 +7366,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B487">
         <v>6</v>
@@ -7411,7 +7380,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B488">
         <v>7</v>
@@ -7425,7 +7394,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B489">
         <v>8</v>
@@ -7439,7 +7408,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B490">
         <v>9</v>
@@ -7453,7 +7422,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B491">
         <v>10</v>
@@ -7467,7 +7436,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B492">
         <v>11</v>
@@ -7481,7 +7450,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B493">
         <v>12</v>
@@ -7495,7 +7464,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -7509,7 +7478,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B495">
         <v>2</v>
@@ -7523,7 +7492,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B496">
         <v>3</v>
@@ -7537,7 +7506,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B497">
         <v>4</v>
@@ -7551,7 +7520,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B498">
         <v>5</v>
@@ -7565,7 +7534,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B499">
         <v>6</v>
@@ -7579,7 +7548,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B500">
         <v>7</v>
@@ -7593,7 +7562,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B501">
         <v>8</v>
@@ -7607,7 +7576,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B502">
         <v>9</v>
@@ -7621,7 +7590,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B503">
         <v>10</v>
@@ -7635,7 +7604,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B504">
         <v>11</v>
@@ -7649,7 +7618,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B505">
         <v>12</v>
@@ -7663,7 +7632,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -7677,7 +7646,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -7691,7 +7660,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B508">
         <v>3</v>
@@ -7705,7 +7674,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B509">
         <v>4</v>
@@ -7719,7 +7688,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B510">
         <v>5</v>
@@ -7733,7 +7702,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B511">
         <v>6</v>
@@ -7747,7 +7716,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B512">
         <v>7</v>
@@ -7761,7 +7730,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B513">
         <v>8</v>
@@ -7775,7 +7744,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B514">
         <v>9</v>
@@ -7789,7 +7758,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B515">
         <v>10</v>
@@ -7803,7 +7772,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B516">
         <v>11</v>
@@ -7817,7 +7786,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B517">
         <v>12</v>
@@ -7831,7 +7800,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -7845,7 +7814,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -7859,7 +7828,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B520">
         <v>3</v>
@@ -7873,7 +7842,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B521">
         <v>4</v>
@@ -7887,7 +7856,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B522">
         <v>5</v>
@@ -7901,7 +7870,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B523">
         <v>6</v>
@@ -7915,7 +7884,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B524">
         <v>7</v>
@@ -7929,7 +7898,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B525">
         <v>8</v>
@@ -7943,7 +7912,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B526">
         <v>9</v>
@@ -7957,7 +7926,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B527">
         <v>10</v>
@@ -7971,7 +7940,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B528">
         <v>11</v>
@@ -7985,7 +7954,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B529">
         <v>12</v>
@@ -7999,7 +7968,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -8013,7 +7982,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B531">
         <v>2</v>
@@ -8027,7 +7996,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B532">
         <v>3</v>
@@ -8041,7 +8010,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B533">
         <v>4</v>
@@ -8055,7 +8024,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B534">
         <v>5</v>
@@ -8069,7 +8038,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B535">
         <v>6</v>
@@ -8083,7 +8052,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B536">
         <v>7</v>
@@ -8097,7 +8066,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B537">
         <v>8</v>
@@ -8111,7 +8080,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B538">
         <v>9</v>
@@ -8125,7 +8094,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B539">
         <v>10</v>
@@ -8139,7 +8108,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B540">
         <v>11</v>
@@ -8153,7 +8122,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B541">
         <v>12</v>
@@ -8167,7 +8136,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -8181,7 +8150,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B543">
         <v>2</v>
@@ -8195,7 +8164,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B544">
         <v>3</v>
@@ -8209,7 +8178,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -8223,7 +8192,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B546">
         <v>5</v>
@@ -8237,7 +8206,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B547">
         <v>6</v>
@@ -8251,7 +8220,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B548">
         <v>7</v>
@@ -8265,7 +8234,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B549">
         <v>8</v>
@@ -8279,7 +8248,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B550">
         <v>9</v>
@@ -8293,7 +8262,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B551">
         <v>10</v>
@@ -8307,7 +8276,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B552">
         <v>11</v>
@@ -8321,7 +8290,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B553">
         <v>12</v>
@@ -8335,7 +8304,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -8349,7 +8318,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B555">
         <v>2</v>
@@ -8363,7 +8332,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B556">
         <v>3</v>
@@ -8377,7 +8346,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B557">
         <v>4</v>
@@ -8391,7 +8360,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B558">
         <v>5</v>
@@ -8405,7 +8374,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B559">
         <v>6</v>
@@ -8419,7 +8388,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B560">
         <v>7</v>
@@ -8433,7 +8402,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B561">
         <v>8</v>
@@ -8447,7 +8416,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B562">
         <v>9</v>
@@ -8461,7 +8430,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B563">
         <v>10</v>
@@ -8475,7 +8444,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B564">
         <v>11</v>
@@ -8489,7 +8458,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B565">
         <v>12</v>
@@ -8503,7 +8472,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -8517,7 +8486,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B567">
         <v>2</v>
@@ -8531,7 +8500,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B568">
         <v>3</v>
@@ -8545,7 +8514,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B569">
         <v>4</v>
@@ -8559,7 +8528,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B570">
         <v>5</v>
@@ -8573,7 +8542,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B571">
         <v>6</v>
@@ -8587,7 +8556,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B572">
         <v>7</v>
@@ -8601,7 +8570,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B573">
         <v>8</v>
@@ -8615,7 +8584,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B574">
         <v>9</v>
@@ -8629,7 +8598,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B575">
         <v>10</v>
@@ -8643,7 +8612,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B576">
         <v>11</v>
@@ -8657,7 +8626,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B577">
         <v>12</v>
@@ -8671,7 +8640,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -8685,7 +8654,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B579">
         <v>2</v>
@@ -8699,7 +8668,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B580">
         <v>3</v>
@@ -8713,7 +8682,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B581">
         <v>4</v>
@@ -8727,7 +8696,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B582">
         <v>5</v>
@@ -8741,7 +8710,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B583">
         <v>6</v>
@@ -8755,7 +8724,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B584">
         <v>7</v>
@@ -8769,7 +8738,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B585">
         <v>8</v>
@@ -8783,7 +8752,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B586">
         <v>9</v>
@@ -8797,7 +8766,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B587">
         <v>10</v>
@@ -8811,7 +8780,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B588">
         <v>11</v>
@@ -8825,7 +8794,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B589">
         <v>12</v>
@@ -8839,7 +8808,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -8853,7 +8822,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B591">
         <v>2</v>
@@ -8867,7 +8836,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B592">
         <v>3</v>
@@ -8881,7 +8850,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B593">
         <v>4</v>
@@ -8895,7 +8864,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B594">
         <v>5</v>
@@ -8909,7 +8878,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B595">
         <v>6</v>
@@ -8923,7 +8892,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B596">
         <v>7</v>
@@ -8937,7 +8906,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B597">
         <v>8</v>
@@ -8951,7 +8920,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B598">
         <v>9</v>
@@ -8965,7 +8934,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B599">
         <v>10</v>
@@ -8979,7 +8948,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B600">
         <v>11</v>
@@ -8993,7 +8962,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B601">
         <v>12</v>
@@ -9007,7 +8976,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -9021,7 +8990,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B603">
         <v>2</v>
@@ -9035,7 +9004,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B604">
         <v>3</v>
@@ -9049,7 +9018,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B605">
         <v>4</v>
@@ -9063,7 +9032,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B606">
         <v>5</v>
@@ -9077,7 +9046,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B607">
         <v>6</v>
@@ -9091,7 +9060,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B608">
         <v>7</v>
@@ -9105,7 +9074,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B609">
         <v>8</v>
@@ -9119,7 +9088,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B610">
         <v>9</v>
@@ -9133,7 +9102,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B611">
         <v>10</v>
@@ -9147,7 +9116,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B612">
         <v>11</v>
@@ -9161,7 +9130,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B613">
         <v>12</v>
@@ -9175,7 +9144,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B614">
         <v>1</v>
@@ -9189,7 +9158,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B615">
         <v>2</v>
@@ -9203,7 +9172,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B616">
         <v>3</v>
@@ -9217,7 +9186,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B617">
         <v>4</v>
@@ -9231,7 +9200,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B618">
         <v>5</v>
@@ -9245,7 +9214,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B619">
         <v>6</v>
@@ -9259,7 +9228,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B620">
         <v>7</v>
@@ -9273,7 +9242,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B621">
         <v>8</v>
@@ -9287,7 +9256,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B622">
         <v>9</v>
@@ -9301,7 +9270,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B623">
         <v>10</v>
@@ -9315,7 +9284,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B624">
         <v>11</v>
@@ -9329,7 +9298,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B625">
         <v>12</v>
@@ -9343,7 +9312,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B626">
         <v>1</v>
@@ -9357,7 +9326,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B627">
         <v>2</v>
@@ -9371,7 +9340,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B628">
         <v>3</v>
@@ -9385,7 +9354,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B629">
         <v>4</v>
@@ -9399,7 +9368,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B630">
         <v>5</v>
@@ -9413,7 +9382,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B631">
         <v>6</v>
@@ -9427,7 +9396,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B632">
         <v>7</v>
@@ -9441,7 +9410,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B633">
         <v>8</v>
@@ -9455,7 +9424,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B634">
         <v>9</v>
@@ -9469,7 +9438,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B635">
         <v>10</v>
@@ -9483,7 +9452,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B636">
         <v>11</v>
@@ -9497,7 +9466,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B637">
         <v>12</v>
@@ -9511,7 +9480,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -9525,7 +9494,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B639">
         <v>2</v>
@@ -9539,7 +9508,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B640">
         <v>3</v>
@@ -9553,7 +9522,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B641">
         <v>4</v>
@@ -9567,7 +9536,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B642">
         <v>5</v>
@@ -9581,7 +9550,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B643">
         <v>6</v>
@@ -9595,7 +9564,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B644">
         <v>7</v>
@@ -9609,7 +9578,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B645">
         <v>8</v>
@@ -9623,7 +9592,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B646">
         <v>9</v>
@@ -9637,7 +9606,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B647">
         <v>10</v>
@@ -9651,7 +9620,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B648">
         <v>11</v>
@@ -9665,7 +9634,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B649">
         <v>12</v>
@@ -9678,6 +9647,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D649" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/dados_premissas/2023/fc_distribuidoras_mensal.xlsx
+++ b/inst/dados_premissas/2023/fc_distribuidoras_mensal.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E65A6C-F68F-444A-941A-66F03B0F1060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4423B017-47FF-422A-B1F8-FDE027063FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$649</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$625</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="56">
   <si>
     <t>nome_4md</t>
   </si>
@@ -115,16 +115,7 @@
     <t>CEEE</t>
   </si>
   <si>
-    <t>EMG</t>
-  </si>
-  <si>
     <t>EPB</t>
-  </si>
-  <si>
-    <t>EBO</t>
-  </si>
-  <si>
-    <t>ENF</t>
   </si>
   <si>
     <t>AME</t>
@@ -197,6 +188,9 @@
   </si>
   <si>
     <t>PACTO</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
 </sst>
 </file>
@@ -549,18 +543,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D649"/>
+  <dimension ref="A1:D625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -588,7 +582,7 @@
         <v>0.16437925925925931</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -602,7 +596,7 @@
         <v>0.17992666666666671</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -616,7 +610,7 @@
         <v>0.17640888888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -630,7 +624,7 @@
         <v>0.1869162962962963</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -644,7 +638,7 @@
         <v>0.18844222222222221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -658,7 +652,7 @@
         <v>0.18167555555555559</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -672,7 +666,7 @@
         <v>0.1842081481481482</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -686,7 +680,7 @@
         <v>0.21059259259259261</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -700,7 +694,7 @@
         <v>0.191742962962963</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -714,7 +708,7 @@
         <v>0.1808940740740741</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -728,7 +722,7 @@
         <v>0.16269259259259261</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -742,7 +736,7 @@
         <v>0.16324962962962969</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -756,7 +750,7 @@
         <v>0.1745120969178692</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -770,7 +764,7 @@
         <v>0.1776305184393373</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -784,7 +778,7 @@
         <v>0.17685897024763941</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -798,7 +792,7 @@
         <v>0.16543066096561551</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -812,7 +806,7 @@
         <v>0.14160311776233739</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -826,7 +820,7 @@
         <v>0.13128900766078741</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -840,7 +834,7 @@
         <v>0.13837737395332261</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -854,7 +848,7 @@
         <v>0.1689215214680207</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -868,7 +862,7 @@
         <v>0.15670634241938361</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -882,7 +876,7 @@
         <v>0.16472100481026189</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -896,7 +890,7 @@
         <v>0.17732175307322279</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -910,7 +904,7 @@
         <v>0.17930513094601819</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -924,7 +918,7 @@
         <v>0.17758888888888891</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -938,7 +932,7 @@
         <v>0.1757133333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -952,7 +946,7 @@
         <v>0.1654133333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -966,7 +960,7 @@
         <v>0.1551177777777778</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -980,7 +974,7 @@
         <v>0.1338466666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -994,7 +988,7 @@
         <v>0.1163466666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1002,7 @@
         <v>0.12392444444444441</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +1016,7 @@
         <v>0.14423111111111109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1030,7 @@
         <v>0.13228444444444451</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>0.1471577777777778</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1058,7 @@
         <v>0.17697777777777779</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1072,7 @@
         <v>0.17975555555555561</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>0.16257764705882349</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>0.1794725490196078</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1114,7 @@
         <v>0.17007725490196079</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1128,7 @@
         <v>0.167641568627451</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>0.14807098039215691</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1162,7 +1156,7 @@
         <v>0.14308078431372551</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1170,7 @@
         <v>0.14464117647058819</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1184,7 @@
         <v>0.17270117647058819</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1198,7 @@
         <v>0.1591878431372549</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1212,7 @@
         <v>0.16207058823529411</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>0.16467450980392159</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>0.17333137254901959</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1254,7 @@
         <v>0.1396352818914004</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1268,7 @@
         <v>0.1358875032475968</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1282,7 @@
         <v>0.1361666406858924</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +1296,7 @@
         <v>0.13907978695765141</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1316,7 +1310,7 @@
         <v>0.14731779683034549</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1324,7 @@
         <v>0.15386591322421411</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1338,7 @@
         <v>0.15926404260846971</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1352,7 @@
         <v>0.1720801506884905</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1366,7 @@
         <v>0.178950116913484</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1380,7 @@
         <v>0.17630433878929591</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1394,7 @@
         <v>0.1693517017407119</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1408,7 @@
         <v>0.1485938425565082</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1422,7 @@
         <v>0.1621971485943775</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1442,7 +1436,7 @@
         <v>0.16740160642570279</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1456,7 +1450,7 @@
         <v>0.16560085676037481</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1464,7 @@
         <v>0.1735273493975904</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1478,7 @@
         <v>0.18281935742971889</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1498,7 +1492,7 @@
         <v>0.1866274966532798</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>0.19369848728246319</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>0.21067236947791171</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1534,7 @@
         <v>0.19752313253012049</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1548,7 @@
         <v>0.17587368139223561</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>0.16183076305220881</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1582,9 +1576,9 @@
         <v>0.15995692101740289</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1596,9 +1590,9 @@
         <v>0.15490607280657609</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -1610,9 +1604,9 @@
         <v>0.15854192249622551</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1624,9 +1618,9 @@
         <v>0.1624952860258346</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -1638,9 +1632,9 @@
         <v>0.15377243751048481</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -1652,9 +1646,9 @@
         <v>0.14214032880389199</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -1666,9 +1660,9 @@
         <v>0.14869438013756081</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -1680,9 +1674,9 @@
         <v>0.15162011407481971</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -1694,9 +1688,9 @@
         <v>0.1675574232511324</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B82">
         <v>9</v>
@@ -1708,9 +1702,9 @@
         <v>0.1801295084717329</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -1722,9 +1716,9 @@
         <v>0.1775934574735783</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B84">
         <v>11</v>
@@ -1736,9 +1730,9 @@
         <v>0.1701976346250629</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B85">
         <v>12</v>
@@ -1750,7 +1744,7 @@
         <v>0.1595101660795169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>0.14132907017376661</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>0.14415316560246511</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1786,7 @@
         <v>0.14573255185997011</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +1800,7 @@
         <v>0.1458680421868547</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +1814,7 @@
         <v>0.15256319768734711</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>0.16385347374440101</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1842,7 @@
         <v>0.1651879030464754</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1856,7 @@
         <v>0.17937876362019131</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>0.1721204263159567</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>0.16554293656088179</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -1904,7 +1898,7 @@
         <v>0.15791255440134691</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -1918,9 +1912,9 @@
         <v>0.1462916452238</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1932,9 +1926,9 @@
         <v>0.15394447866757929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -1946,9 +1940,9 @@
         <v>0.15945245265799679</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -1960,9 +1954,9 @@
         <v>0.1611425621720283</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -1974,9 +1968,9 @@
         <v>0.16438991558293409</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -1988,9 +1982,9 @@
         <v>0.16992436687200549</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -2002,9 +1996,9 @@
         <v>0.17882897558749711</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -2016,9 +2010,9 @@
         <v>0.18448690394706821</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -2030,9 +2024,9 @@
         <v>0.19966760209901899</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -2044,9 +2038,9 @@
         <v>0.2029667237052247</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -2058,9 +2052,9 @@
         <v>0.18515455167693359</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B108">
         <v>11</v>
@@ -2072,9 +2066,9 @@
         <v>0.1703813826146475</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B109">
         <v>12</v>
@@ -2086,7 +2080,7 @@
         <v>0.16110386721423681</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -2100,7 +2094,7 @@
         <v>0.17350439346228819</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -2114,7 +2108,7 @@
         <v>0.17567022042285199</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>0.17822681061628429</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -2142,7 +2136,7 @@
         <v>0.17994342480131961</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2150,7 @@
         <v>0.1849522717049033</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +2164,7 @@
         <v>0.1883026390763233</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -2184,7 +2178,7 @@
         <v>0.19735730994152051</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -2198,7 +2192,7 @@
         <v>0.21588337082021289</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>0.2210695906432748</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -2226,7 +2220,7 @@
         <v>0.2069818863397811</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>0.1923639376218324</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2254,7 +2248,7 @@
         <v>0.18078764432448641</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -2268,7 +2262,7 @@
         <v>0.1826149162861492</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -2282,7 +2276,7 @@
         <v>0.19744238964992389</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -2296,7 +2290,7 @@
         <v>0.17874208523592081</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -2310,7 +2304,7 @@
         <v>0.16704961948249619</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -2324,7 +2318,7 @@
         <v>0.1518222222222223</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -2338,7 +2332,7 @@
         <v>0.14655677321156771</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -2352,7 +2346,7 @@
         <v>0.14739977168949769</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -2366,7 +2360,7 @@
         <v>0.1651155251141552</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -2380,7 +2374,7 @@
         <v>0.16927983257229831</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -2394,7 +2388,7 @@
         <v>0.16247747336377469</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>0.1530305175038052</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -2422,7 +2416,7 @@
         <v>0.17251856925418571</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +2430,7 @@
         <v>0.18068376068376071</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -2450,7 +2444,7 @@
         <v>0.19463803418803419</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2458,7 @@
         <v>0.17893333333333331</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -2478,7 +2472,7 @@
         <v>0.16611410256410261</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -2492,7 +2486,7 @@
         <v>0.150832905982906</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2500,7 @@
         <v>0.14500854700854701</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -2520,7 +2514,7 @@
         <v>0.1450440170940171</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -2534,7 +2528,7 @@
         <v>0.1596952991452992</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -2548,7 +2542,7 @@
         <v>0.16471837606837611</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -2562,7 +2556,7 @@
         <v>0.15811111111111109</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -2576,7 +2570,7 @@
         <v>0.15025427350427351</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -2590,7 +2584,7 @@
         <v>0.16988290598290601</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -2604,7 +2598,7 @@
         <v>0.17204066193853429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -2618,7 +2612,7 @@
         <v>0.19179196217494091</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -2632,7 +2626,7 @@
         <v>0.1706749408983452</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -2646,7 +2640,7 @@
         <v>0.1648853427895981</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>0.14662600472813239</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2668,7 @@
         <v>0.14373120567375891</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -2688,7 +2682,7 @@
         <v>0.1441553191489362</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -2702,7 +2696,7 @@
         <v>0.1680988179669031</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -2716,7 +2710,7 @@
         <v>0.15983356973995269</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -2730,7 +2724,7 @@
         <v>0.1597763593380615</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -2744,7 +2738,7 @@
         <v>0.15163073286052009</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -2758,7 +2752,7 @@
         <v>0.16790780141843969</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -2772,7 +2766,7 @@
         <v>0.16896950959488269</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -2786,7 +2780,7 @@
         <v>0.18272056384742949</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -2800,7 +2794,7 @@
         <v>0.1759071310116086</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +2808,7 @@
         <v>0.17305728500355361</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>0.15428948116560059</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -2842,7 +2836,7 @@
         <v>0.14804330727315801</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>0.15171781568348741</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -2870,7 +2864,7 @@
         <v>0.17803641317223409</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -2884,7 +2878,7 @@
         <v>0.16429639895759299</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>0.16808147358445871</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -2912,7 +2906,7 @@
         <v>0.1712883203032457</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -2926,7 +2920,7 @@
         <v>0.1776612177209192</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +2934,7 @@
         <v>0.15394814814814811</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -2954,7 +2948,7 @@
         <v>0.1713253968253968</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -2968,7 +2962,7 @@
         <v>0.15838042328042329</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -2982,7 +2976,7 @@
         <v>0.15545925925925921</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -2996,7 +2990,7 @@
         <v>0.13779523809523811</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -3010,7 +3004,7 @@
         <v>0.13317142857142861</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -3024,7 +3018,7 @@
         <v>0.1339957671957672</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -3038,7 +3032,7 @@
         <v>0.1608063492063492</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -3052,7 +3046,7 @@
         <v>0.14427513227513231</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -3066,7 +3060,7 @@
         <v>0.1452968253968254</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>0.1511851851851852</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -3094,7 +3088,7 @@
         <v>0.16283121693121691</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -3108,7 +3102,7 @@
         <v>0.15985529715762281</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -3122,7 +3116,7 @@
         <v>0.1776382428940568</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3130,7 @@
         <v>0.1626656330749354</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -3150,7 +3144,7 @@
         <v>0.16165167958656329</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +3158,7 @@
         <v>0.14337958656330749</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -3178,7 +3172,7 @@
         <v>0.14006614987080099</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -3192,7 +3186,7 @@
         <v>0.14201653746770029</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -3206,7 +3200,7 @@
         <v>0.1695586563307494</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -3220,7 +3214,7 @@
         <v>0.15462196382428939</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -3234,7 +3228,7 @@
         <v>0.15722144702842381</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -3248,7 +3242,7 @@
         <v>0.1539485788113695</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -3262,7 +3256,7 @@
         <v>0.16585684754521959</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -3276,7 +3270,7 @@
         <v>0.18893890210067379</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -3290,7 +3284,7 @@
         <v>0.1893913793103448</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3298,7 @@
         <v>0.18147185889813719</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -3318,7 +3312,7 @@
         <v>0.16202233452239401</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -3332,7 +3326,7 @@
         <v>0.13192833927863659</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -3346,7 +3340,7 @@
         <v>0.11504916765755049</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -3360,7 +3354,7 @@
         <v>0.1264242964724534</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -3374,7 +3368,7 @@
         <v>0.14816755846214821</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -3388,7 +3382,7 @@
         <v>0.14522241379310341</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -3402,7 +3396,7 @@
         <v>0.16733426476416971</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -3416,7 +3410,7 @@
         <v>0.1887886642885454</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -3430,7 +3424,7 @@
         <v>0.1922980182322632</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -3444,7 +3438,7 @@
         <v>0.18545585585585589</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -3458,7 +3452,7 @@
         <v>0.18770360360360361</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -3472,7 +3466,7 @@
         <v>0.1788306306306307</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -3486,7 +3480,7 @@
         <v>0.1630513513513514</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -3500,7 +3494,7 @@
         <v>0.13544594594594589</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3508,7 @@
         <v>0.1170441441441441</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -3528,7 +3522,7 @@
         <v>0.13006216216216221</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -3542,7 +3536,7 @@
         <v>0.15186396396396401</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -3556,7 +3550,7 @@
         <v>0.14349549549549551</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -3570,7 +3564,7 @@
         <v>0.16693063063063071</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -3584,7 +3578,7 @@
         <v>0.1869189189189189</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -3598,7 +3592,7 @@
         <v>0.18882792792792791</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -3612,7 +3606,7 @@
         <v>0.1864929824561404</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -3626,7 +3620,7 @@
         <v>0.18946842105263159</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -3640,7 +3634,7 @@
         <v>0.18160877192982461</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -3654,7 +3648,7 @@
         <v>0.16271754385964909</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3662,7 @@
         <v>0.1362192982456141</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -3682,7 +3676,7 @@
         <v>0.1171473684210526</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -3696,7 +3690,7 @@
         <v>0.12921929824561409</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -3710,7 +3704,7 @@
         <v>0.15102982456140349</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -3724,7 +3718,7 @@
         <v>0.1450175438596491</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -3738,7 +3732,7 @@
         <v>0.16775438596491229</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -3752,7 +3746,7 @@
         <v>0.18590350877192979</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -3766,7 +3760,7 @@
         <v>0.18916491228070181</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -3780,7 +3774,7 @@
         <v>0.18679215686274511</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -3794,7 +3788,7 @@
         <v>0.18994313725490189</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -3808,7 +3802,7 @@
         <v>0.1798901960784314</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -3822,7 +3816,7 @@
         <v>0.1583107843137255</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -3836,7 +3830,7 @@
         <v>0.1275509803921569</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3844,7 @@
         <v>0.110343137254902</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -3864,7 +3858,7 @@
         <v>0.1194392156862745</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -3878,7 +3872,7 @@
         <v>0.14178725490196081</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -3892,7 +3886,7 @@
         <v>0.1394833333333334</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -3906,7 +3900,7 @@
         <v>0.1620872549019608</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -3920,7 +3914,7 @@
         <v>0.1877225490196078</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -3934,7 +3928,7 @@
         <v>0.19251176470588241</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>22</v>
       </c>
@@ -3948,7 +3942,7 @@
         <v>0.1829466666666667</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>22</v>
       </c>
@@ -3962,7 +3956,7 @@
         <v>0.18421999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>22</v>
       </c>
@@ -3976,7 +3970,7 @@
         <v>0.1767755555555556</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>22</v>
       </c>
@@ -3990,7 +3984,7 @@
         <v>0.16168888888888891</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +3998,7 @@
         <v>0.1327888888888889</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -4018,7 +4012,7 @@
         <v>0.1168622222222222</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -4032,7 +4026,7 @@
         <v>0.13040444444444441</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -4046,7 +4040,7 @@
         <v>0.1531622222222222</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>22</v>
       </c>
@@ -4060,7 +4054,7 @@
         <v>0.14280444444444451</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -4074,7 +4068,7 @@
         <v>0.16395999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>22</v>
       </c>
@@ -4088,7 +4082,7 @@
         <v>0.18622</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -4102,7 +4096,7 @@
         <v>0.1866866666666667</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>23</v>
       </c>
@@ -4116,7 +4110,7 @@
         <v>0.1924618357487923</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>23</v>
       </c>
@@ -4130,7 +4124,7 @@
         <v>0.19286570048309179</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -4144,7 +4138,7 @@
         <v>0.19662028985507249</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>23</v>
       </c>
@@ -4158,7 +4152,7 @@
         <v>0.17251594202898549</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>23</v>
       </c>
@@ -4172,7 +4166,7 @@
         <v>0.15161594202898551</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>23</v>
       </c>
@@ -4186,7 +4180,7 @@
         <v>0.14472270531400969</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -4200,7 +4194,7 @@
         <v>0.14831400966183581</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -4214,7 +4208,7 @@
         <v>0.16113913043478259</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>23</v>
       </c>
@@ -4228,7 +4222,7 @@
         <v>0.18107681159420291</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>23</v>
       </c>
@@ -4242,7 +4236,7 @@
         <v>0.18496376811594201</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>23</v>
       </c>
@@ -4256,7 +4250,7 @@
         <v>0.19215797101449281</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -4270,7 +4264,7 @@
         <v>0.19308502415458939</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -4284,7 +4278,7 @@
         <v>0.19083893022320531</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>24</v>
       </c>
@@ -4298,7 +4292,7 @@
         <v>0.1943376030565051</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -4312,7 +4306,7 @@
         <v>0.19162449896105641</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>24</v>
       </c>
@@ -4326,7 +4320,7 @@
         <v>0.17971648904082041</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>24</v>
       </c>
@@ -4340,7 +4334,7 @@
         <v>0.16902514243582009</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>24</v>
       </c>
@@ -4354,7 +4348,7 @@
         <v>0.16347527984449359</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>24</v>
       </c>
@@ -4368,7 +4362,7 @@
         <v>0.17092130169582409</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>24</v>
       </c>
@@ -4382,7 +4376,7 @@
         <v>0.18778631945840871</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>24</v>
       </c>
@@ -4396,7 +4390,7 @@
         <v>0.1990365305985656</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -4410,7 +4404,7 @@
         <v>0.19218312219317649</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>24</v>
       </c>
@@ -4424,7 +4418,7 @@
         <v>0.18202570547623839</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>24</v>
       </c>
@@ -4438,7 +4432,7 @@
         <v>0.1882931429720491</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>25</v>
       </c>
@@ -4452,7 +4446,7 @@
         <v>0.1784902554154543</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -4466,7 +4460,7 @@
         <v>0.1947658842547689</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -4480,7 +4474,7 @@
         <v>0.17860073714839961</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>25</v>
       </c>
@@ -4494,7 +4488,7 @@
         <v>0.181287959909473</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>25</v>
       </c>
@@ -4508,7 +4502,7 @@
         <v>0.17054821209182031</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>25</v>
       </c>
@@ -4522,7 +4516,7 @@
         <v>0.16679714839961199</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>25</v>
       </c>
@@ -4536,7 +4530,7 @@
         <v>0.17472966698997741</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>25</v>
       </c>
@@ -4550,7 +4544,7 @@
         <v>0.19611198189460069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>25</v>
       </c>
@@ -4564,7 +4558,7 @@
         <v>0.19058109279017141</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>25</v>
       </c>
@@ -4578,7 +4572,7 @@
         <v>0.1813435370190753</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>25</v>
       </c>
@@ -4592,7 +4586,7 @@
         <v>0.16346437116068541</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>25</v>
       </c>
@@ -4606,7 +4600,7 @@
         <v>0.17423188490139019</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>26</v>
       </c>
@@ -4620,7 +4614,7 @@
         <v>0.15912307692307689</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>26</v>
       </c>
@@ -4634,7 +4628,7 @@
         <v>0.17608974358974361</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>26</v>
       </c>
@@ -4648,7 +4642,7 @@
         <v>0.16414615384615391</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>26</v>
       </c>
@@ -4662,7 +4656,7 @@
         <v>0.1722025641025641</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>26</v>
       </c>
@@ -4676,7 +4670,7 @@
         <v>0.16091025641025641</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>26</v>
       </c>
@@ -4690,7 +4684,7 @@
         <v>0.1581153846153846</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>26</v>
       </c>
@@ -4704,7 +4698,7 @@
         <v>0.16584615384615389</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -4718,7 +4712,7 @@
         <v>0.19177435897435899</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>26</v>
       </c>
@@ -4732,7 +4726,7 @@
         <v>0.1781897435897436</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>26</v>
       </c>
@@ -4746,7 +4740,7 @@
         <v>0.1736102564102564</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>26</v>
       </c>
@@ -4760,7 +4754,7 @@
         <v>0.1621615384615385</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>26</v>
       </c>
@@ -4774,7 +4768,7 @@
         <v>0.164674358974359</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>27</v>
       </c>
@@ -4788,7 +4782,7 @@
         <v>0.16910282485875711</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>27</v>
       </c>
@@ -4802,7 +4796,7 @@
         <v>0.18363954802259891</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>27</v>
       </c>
@@ -4816,7 +4810,7 @@
         <v>0.17329661016949149</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>27</v>
       </c>
@@ -4830,7 +4824,7 @@
         <v>0.18281638418079099</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>27</v>
       </c>
@@ -4844,7 +4838,7 @@
         <v>0.1863118644067796</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -4858,7 +4852,7 @@
         <v>0.1881378531073446</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -4872,7 +4866,7 @@
         <v>0.19634858757062151</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -4886,7 +4880,7 @@
         <v>0.21915141242937849</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -4900,7 +4894,7 @@
         <v>0.19963898305084751</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -4914,7 +4908,7 @@
         <v>0.1821463276836158</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>27</v>
       </c>
@@ -4928,7 +4922,7 @@
         <v>0.15930338983050851</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>27</v>
       </c>
@@ -4942,7 +4936,7 @@
         <v>0.16645028248587571</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>28</v>
       </c>
@@ -4956,7 +4950,7 @@
         <v>0.16947041156840939</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>28</v>
       </c>
@@ -4970,7 +4964,7 @@
         <v>0.17058057100482019</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>28</v>
       </c>
@@ -4984,7 +4978,7 @@
         <v>0.16640103819058211</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>28</v>
       </c>
@@ -4998,7 +4992,7 @@
         <v>0.15082131998516871</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>28</v>
       </c>
@@ -5012,7 +5006,7 @@
         <v>0.12905576566555441</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -5026,7 +5020,7 @@
         <v>0.1153037819799778</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -5040,7 +5034,7 @@
         <v>0.12367415647015199</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>28</v>
       </c>
@@ -5054,7 +5048,7 @@
         <v>0.1491812384130515</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>28</v>
       </c>
@@ -5068,7 +5062,7 @@
         <v>0.13720800889877641</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>28</v>
       </c>
@@ -5082,7 +5076,7 @@
         <v>0.148189247311828</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>28</v>
       </c>
@@ -5096,7 +5090,7 @@
         <v>0.1709149425287356</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>28</v>
       </c>
@@ -5110,7 +5104,7 @@
         <v>0.1722366703744902</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>29</v>
       </c>
@@ -5124,7 +5118,7 @@
         <v>0.1885271750805585</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>29</v>
       </c>
@@ -5138,7 +5132,7 @@
         <v>0.18566738274257069</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>29</v>
       </c>
@@ -5152,7 +5146,7 @@
         <v>0.17776913712853559</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>29</v>
       </c>
@@ -5166,7 +5160,7 @@
         <v>0.15678650196920871</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -5180,7 +5174,7 @@
         <v>0.12564063730755459</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -5194,7 +5188,7 @@
         <v>0.1106758682420337</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>29</v>
       </c>
@@ -5208,7 +5202,7 @@
         <v>0.1176325098460437</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>29</v>
       </c>
@@ -5222,7 +5216,7 @@
         <v>0.13517597565341929</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>29</v>
       </c>
@@ -5236,7 +5230,7 @@
         <v>0.1383181883279628</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>29</v>
       </c>
@@ -5250,7 +5244,7 @@
         <v>0.16375524525599711</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>29</v>
       </c>
@@ -5264,7 +5258,7 @@
         <v>0.18821152882205519</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>29</v>
       </c>
@@ -5278,9 +5272,9 @@
         <v>0.1927029359112066</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -5292,9 +5286,9 @@
         <v>0.17016079452946919</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -5306,9 +5300,9 @@
         <v>0.18172837295126451</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -5320,9 +5314,9 @@
         <v>0.1773150222511668</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B341">
         <v>4</v>
@@ -5334,9 +5328,9 @@
         <v>0.1873639965266472</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B342">
         <v>5</v>
@@ -5348,9 +5342,9 @@
         <v>0.1857384022576794</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B343">
         <v>6</v>
@@ -5362,9 +5356,9 @@
         <v>0.18157362422663631</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B344">
         <v>7</v>
@@ -5376,9 +5370,9 @@
         <v>0.1885611310105286</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B345">
         <v>8</v>
@@ -5390,9 +5384,9 @@
         <v>0.20949825246933679</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B346">
         <v>9</v>
@@ -5404,9 +5398,9 @@
         <v>0.19172158905893841</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B347">
         <v>10</v>
@@ -5418,9 +5412,9 @@
         <v>0.18054124606534239</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B348">
         <v>11</v>
@@ -5432,9 +5426,9 @@
         <v>0.16614928904808429</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B349">
         <v>12</v>
@@ -5446,7 +5440,7 @@
         <v>0.1691049712362965</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>30</v>
       </c>
@@ -5454,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>0.1616321517412935</v>
+        <v>0.1786955518018018</v>
       </c>
       <c r="D350">
-        <v>0.17240762852404651</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19060858858858859</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>30</v>
       </c>
@@ -5468,13 +5462,13 @@
         <v>2</v>
       </c>
       <c r="C351">
-        <v>0.17836054104477611</v>
+        <v>0.18238209459459459</v>
       </c>
       <c r="D351">
-        <v>0.19025124378109451</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1945409009009009</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>30</v>
       </c>
@@ -5482,13 +5476,13 @@
         <v>3</v>
       </c>
       <c r="C352">
-        <v>0.15984996890547259</v>
+        <v>0.18788119369369369</v>
       </c>
       <c r="D352">
-        <v>0.17050663349917081</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.20040660660660661</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>30</v>
       </c>
@@ -5496,13 +5490,13 @@
         <v>4</v>
       </c>
       <c r="C353">
-        <v>0.1534490049751244</v>
+        <v>0.17956706081081081</v>
       </c>
       <c r="D353">
-        <v>0.16367893864013269</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1915381981981982</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>30</v>
       </c>
@@ -5510,13 +5504,13 @@
         <v>5</v>
       </c>
       <c r="C354">
-        <v>0.13943299129353229</v>
+        <v>0.16311199324324319</v>
       </c>
       <c r="D354">
-        <v>0.1487285240464345</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1739861261261261</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>30</v>
       </c>
@@ -5524,13 +5518,13 @@
         <v>6</v>
       </c>
       <c r="C355">
-        <v>0.13799906716417909</v>
+        <v>0.15083293918918919</v>
       </c>
       <c r="D355">
-        <v>0.14719900497512439</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16088846846846841</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>30</v>
       </c>
@@ -5538,13 +5532,13 @@
         <v>7</v>
       </c>
       <c r="C356">
-        <v>0.14209965796019899</v>
+        <v>0.15733338963963961</v>
       </c>
       <c r="D356">
-        <v>0.15157296849087901</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1678222822822823</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>30</v>
       </c>
@@ -5552,13 +5546,13 @@
         <v>8</v>
       </c>
       <c r="C357">
-        <v>0.16167304104477609</v>
+        <v>0.17912240990990991</v>
       </c>
       <c r="D357">
-        <v>0.1724512437810945</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1910639039039039</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>30</v>
       </c>
@@ -5566,13 +5560,13 @@
         <v>9</v>
       </c>
       <c r="C358">
-        <v>0.15902829601990051</v>
+        <v>0.19265123873873871</v>
       </c>
       <c r="D358">
-        <v>0.16963018242122721</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.20549465465465461</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>30</v>
       </c>
@@ -5580,13 +5574,13 @@
         <v>10</v>
       </c>
       <c r="C359">
-        <v>0.15266775497512439</v>
+        <v>0.19348248873873869</v>
       </c>
       <c r="D359">
-        <v>0.16284560530679931</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.20638132132132131</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>30</v>
       </c>
@@ -5594,13 +5588,13 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>0.13915220771144279</v>
+        <v>0.19412387387387381</v>
       </c>
       <c r="D360">
-        <v>0.1484290215588723</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.2070654654654655</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>30</v>
       </c>
@@ -5608,13 +5602,13 @@
         <v>12</v>
       </c>
       <c r="C361">
-        <v>0.15599300373134331</v>
+        <v>0.18300596846846851</v>
       </c>
       <c r="D361">
-        <v>0.16639253731343279</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1952063663663664</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>31</v>
       </c>
@@ -5622,13 +5616,13 @@
         <v>1</v>
       </c>
       <c r="C362">
-        <v>0.1786955518018018</v>
+        <v>0.12999952817599511</v>
       </c>
       <c r="D362">
-        <v>0.19060858858858859</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13866616338772811</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>31</v>
       </c>
@@ -5636,13 +5630,13 @@
         <v>2</v>
       </c>
       <c r="C363">
-        <v>0.18238209459459459</v>
+        <v>0.13802867403156929</v>
       </c>
       <c r="D363">
-        <v>0.1945409009009009</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14723058563367389</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>31</v>
       </c>
@@ -5650,13 +5644,13 @@
         <v>3</v>
       </c>
       <c r="C364">
-        <v>0.18788119369369369</v>
+        <v>0.13624879661049261</v>
       </c>
       <c r="D364">
-        <v>0.20040660660660661</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14533204971785879</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>31</v>
       </c>
@@ -5664,13 +5658,13 @@
         <v>4</v>
       </c>
       <c r="C365">
-        <v>0.17956706081081081</v>
+        <v>0.13311395502897669</v>
       </c>
       <c r="D365">
-        <v>0.1915381981981982</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14198821869757511</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>31</v>
       </c>
@@ -5678,13 +5672,13 @@
         <v>5</v>
       </c>
       <c r="C366">
-        <v>0.16311199324324319</v>
+        <v>0.12649367803492451</v>
       </c>
       <c r="D366">
-        <v>0.1739861261261261</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13492658990391951</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>31</v>
       </c>
@@ -5692,13 +5686,13 @@
         <v>6</v>
       </c>
       <c r="C367">
-        <v>0.15083293918918919</v>
+        <v>0.13750132253698341</v>
       </c>
       <c r="D367">
-        <v>0.16088846846846841</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1466680773727822</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>31</v>
       </c>
@@ -5706,13 +5700,13 @@
         <v>7</v>
       </c>
       <c r="C368">
-        <v>0.15733338963963961</v>
+        <v>0.14002365315693149</v>
       </c>
       <c r="D368">
-        <v>0.1678222822822823</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14935856336739359</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>31</v>
       </c>
@@ -5720,13 +5714,13 @@
         <v>8</v>
       </c>
       <c r="C369">
-        <v>0.17912240990990991</v>
+        <v>0.1572771656245234</v>
       </c>
       <c r="D369">
-        <v>0.1910639039039039</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1677623099994916</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>31</v>
       </c>
@@ -5734,13 +5728,13 @@
         <v>9</v>
       </c>
       <c r="C370">
-        <v>0.19265123873873871</v>
+        <v>0.15753873007854199</v>
       </c>
       <c r="D370">
-        <v>0.20549465465465461</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16804131208377809</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>31</v>
       </c>
@@ -5748,13 +5742,13 @@
         <v>10</v>
       </c>
       <c r="C371">
-        <v>0.19348248873873869</v>
+        <v>0.15235483548116521</v>
       </c>
       <c r="D371">
-        <v>0.20638132132132131</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16251182451324289</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>31</v>
       </c>
@@ -5762,13 +5756,13 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>0.19412387387387381</v>
+        <v>0.14366937528595389</v>
       </c>
       <c r="D372">
-        <v>0.2070654654654655</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15324733363835091</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>31</v>
       </c>
@@ -5776,13 +5770,13 @@
         <v>12</v>
       </c>
       <c r="C373">
-        <v>0.18300596846846851</v>
+        <v>0.1341798578808906</v>
       </c>
       <c r="D373">
-        <v>0.1952063663663664</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14312518173961669</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>32</v>
       </c>
@@ -5790,13 +5784,13 @@
         <v>1</v>
       </c>
       <c r="C374">
-        <v>0.17195625</v>
+        <v>0.150046875</v>
       </c>
       <c r="D374">
-        <v>0.18342</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16005</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>32</v>
       </c>
@@ -5804,13 +5798,13 @@
         <v>2</v>
       </c>
       <c r="C375">
-        <v>0.1762572916666667</v>
+        <v>0.15483293269230769</v>
       </c>
       <c r="D375">
-        <v>0.1880077777777778</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1651551282051282</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>32</v>
       </c>
@@ -5818,13 +5812,13 @@
         <v>3</v>
       </c>
       <c r="C376">
-        <v>0.18201354166666669</v>
+        <v>0.15050841346153851</v>
       </c>
       <c r="D376">
-        <v>0.19414777777777781</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16054230769230771</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>32</v>
       </c>
@@ -5832,13 +5826,13 @@
         <v>4</v>
       </c>
       <c r="C377">
-        <v>0.17051145833333331</v>
+        <v>0.1384675480769231</v>
       </c>
       <c r="D377">
-        <v>0.1818788888888889</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14769871794871789</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>32</v>
       </c>
@@ -5846,13 +5840,13 @@
         <v>5</v>
       </c>
       <c r="C378">
-        <v>0.15305104166666669</v>
+        <v>0.1189735576923077</v>
       </c>
       <c r="D378">
-        <v>0.16325444444444451</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1269051282051282</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>32</v>
       </c>
@@ -5860,13 +5854,13 @@
         <v>6</v>
       </c>
       <c r="C379">
-        <v>0.1370791666666667</v>
+        <v>0.10904326923076919</v>
       </c>
       <c r="D379">
-        <v>0.14621777777777781</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.11631282051282051</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>32</v>
       </c>
@@ -5874,13 +5868,13 @@
         <v>7</v>
       </c>
       <c r="C380">
-        <v>0.1421291666666667</v>
+        <v>0.1146574519230769</v>
       </c>
       <c r="D380">
-        <v>0.15160444444444451</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1223012820512821</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>32</v>
       </c>
@@ -5888,13 +5882,13 @@
         <v>8</v>
       </c>
       <c r="C381">
-        <v>0.16254270833333331</v>
+        <v>0.14623918269230771</v>
       </c>
       <c r="D381">
-        <v>0.17337888888888889</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15598846153846149</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>32</v>
       </c>
@@ -5902,13 +5896,13 @@
         <v>9</v>
       </c>
       <c r="C382">
-        <v>0.17680833333333329</v>
+        <v>0.13161899038461539</v>
       </c>
       <c r="D382">
-        <v>0.1885955555555556</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1403935897435897</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>32</v>
       </c>
@@ -5916,13 +5910,13 @@
         <v>10</v>
       </c>
       <c r="C383">
-        <v>0.18096145833333341</v>
+        <v>0.1358810096153846</v>
       </c>
       <c r="D383">
-        <v>0.19302555555555559</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1449397435897436</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>32</v>
       </c>
@@ -5930,13 +5924,13 @@
         <v>11</v>
       </c>
       <c r="C384">
-        <v>0.18410104166666669</v>
+        <v>0.15214543269230771</v>
       </c>
       <c r="D384">
-        <v>0.19637444444444441</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16228846153846149</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>32</v>
       </c>
@@ -5944,685 +5938,685 @@
         <v>12</v>
       </c>
       <c r="C385">
-        <v>0.17601354166666669</v>
+        <v>0.15398557692307691</v>
       </c>
       <c r="D385">
-        <v>0.18774777777777779</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16425128205128209</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B386">
         <v>1</v>
       </c>
       <c r="C386">
-        <v>0.15555078124999999</v>
+        <v>0.17309791666666671</v>
       </c>
       <c r="D386">
-        <v>0.1659208333333333</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18463777777777779</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B387">
         <v>2</v>
       </c>
       <c r="C387">
-        <v>0.17496484374999999</v>
+        <v>0.16903750000000001</v>
       </c>
       <c r="D387">
-        <v>0.18662916666666671</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1803066666666667</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B388">
         <v>3</v>
       </c>
       <c r="C388">
-        <v>0.15166210937499999</v>
+        <v>0.17235</v>
       </c>
       <c r="D388">
-        <v>0.16177291666666671</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18384</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B389">
         <v>4</v>
       </c>
       <c r="C389">
-        <v>0.14682421875000001</v>
+        <v>0.1566666666666667</v>
       </c>
       <c r="D389">
-        <v>0.15661249999999999</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1671111111111111</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B390">
         <v>5</v>
       </c>
       <c r="C390">
-        <v>0.13276171875000001</v>
+        <v>0.13240625</v>
       </c>
       <c r="D390">
-        <v>0.1416125</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14123333333333329</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B391">
         <v>6</v>
       </c>
       <c r="C391">
-        <v>0.13161914062499999</v>
+        <v>0.1203916666666667</v>
       </c>
       <c r="D391">
-        <v>0.14039375000000001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1284177777777778</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B392">
         <v>7</v>
       </c>
       <c r="C392">
-        <v>0.13437109375</v>
+        <v>0.1289416666666667</v>
       </c>
       <c r="D392">
-        <v>0.1433291666666667</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13753777777777779</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B393">
         <v>8</v>
       </c>
       <c r="C393">
-        <v>0.153443359375</v>
+        <v>0.15835416666666671</v>
       </c>
       <c r="D393">
-        <v>0.1636729166666667</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1689111111111111</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B394">
         <v>9</v>
       </c>
       <c r="C394">
-        <v>0.14851757812499999</v>
+        <v>0.14553125</v>
       </c>
       <c r="D394">
-        <v>0.15841875</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15523333333333331</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B395">
         <v>10</v>
       </c>
       <c r="C395">
-        <v>0.14492187500000001</v>
+        <v>0.1599541666666667</v>
       </c>
       <c r="D395">
-        <v>0.15458333333333341</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17061777777777781</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B396">
         <v>11</v>
       </c>
       <c r="C396">
-        <v>0.13200390625</v>
+        <v>0.1733875</v>
       </c>
       <c r="D396">
-        <v>0.1408041666666667</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1849466666666667</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B397">
         <v>12</v>
       </c>
       <c r="C397">
-        <v>0.14848828124999999</v>
+        <v>0.17134374999999999</v>
       </c>
       <c r="D397">
-        <v>0.15838749999999999</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18276666666666669</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
       <c r="C398">
-        <v>0.12999952817599511</v>
+        <v>0.1524598214285714</v>
       </c>
       <c r="D398">
-        <v>0.13866616338772811</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1626238095238095</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B399">
         <v>2</v>
       </c>
       <c r="C399">
-        <v>0.13802867403156929</v>
+        <v>0.15264285714285711</v>
       </c>
       <c r="D399">
-        <v>0.14723058563367389</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16281904761904761</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B400">
         <v>3</v>
       </c>
       <c r="C400">
-        <v>0.13624879661049261</v>
+        <v>0.14709375</v>
       </c>
       <c r="D400">
-        <v>0.14533204971785879</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15690000000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B401">
         <v>4</v>
       </c>
       <c r="C401">
-        <v>0.13311395502897669</v>
+        <v>0.14126339285714279</v>
       </c>
       <c r="D401">
-        <v>0.14198821869757511</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15068095238095239</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B402">
         <v>5</v>
       </c>
       <c r="C402">
-        <v>0.12649367803492451</v>
+        <v>0.1220580357142857</v>
       </c>
       <c r="D402">
-        <v>0.13492658990391951</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13019523809523811</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B403">
         <v>6</v>
       </c>
       <c r="C403">
-        <v>0.13750132253698341</v>
+        <v>0.1090446428571429</v>
       </c>
       <c r="D403">
-        <v>0.1466680773727822</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1163142857142857</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B404">
         <v>7</v>
       </c>
       <c r="C404">
-        <v>0.14002365315693149</v>
+        <v>0.1156339285714286</v>
       </c>
       <c r="D404">
-        <v>0.14935856336739359</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1233428571428572</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B405">
         <v>8</v>
       </c>
       <c r="C405">
-        <v>0.1572771656245234</v>
+        <v>0.13555357142857141</v>
       </c>
       <c r="D405">
-        <v>0.1677623099994916</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14459047619047621</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B406">
         <v>9</v>
       </c>
       <c r="C406">
-        <v>0.15753873007854199</v>
+        <v>0.1205848214285714</v>
       </c>
       <c r="D406">
-        <v>0.16804131208377809</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1286238095238095</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B407">
         <v>10</v>
       </c>
       <c r="C407">
-        <v>0.15235483548116521</v>
+        <v>0.13030357142857141</v>
       </c>
       <c r="D407">
-        <v>0.16251182451324289</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13899047619047619</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B408">
         <v>11</v>
       </c>
       <c r="C408">
-        <v>0.14366937528595389</v>
+        <v>0.1567901785714286</v>
       </c>
       <c r="D408">
-        <v>0.15324733363835091</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16724285714285711</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B409">
         <v>12</v>
       </c>
       <c r="C409">
-        <v>0.1341798578808906</v>
+        <v>0.15781249999999999</v>
       </c>
       <c r="D409">
-        <v>0.14312518173961669</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16833333333333331</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B410">
         <v>1</v>
       </c>
       <c r="C410">
-        <v>0.150046875</v>
+        <v>0.17155842391304349</v>
       </c>
       <c r="D410">
-        <v>0.16005</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.182995652173913</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B411">
         <v>2</v>
       </c>
       <c r="C411">
-        <v>0.15483293269230769</v>
+        <v>0.16877309782608699</v>
       </c>
       <c r="D411">
-        <v>0.1651551282051282</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18002463768115939</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B412">
         <v>3</v>
       </c>
       <c r="C412">
-        <v>0.15050841346153851</v>
+        <v>0.16966711956521741</v>
       </c>
       <c r="D412">
-        <v>0.16054230769230771</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1809782608695652</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B413">
         <v>4</v>
       </c>
       <c r="C413">
-        <v>0.1384675480769231</v>
+        <v>0.15335326086956519</v>
       </c>
       <c r="D413">
-        <v>0.14769871794871789</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1635768115942029</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B414">
         <v>5</v>
       </c>
       <c r="C414">
-        <v>0.1189735576923077</v>
+        <v>0.12907608695652181</v>
       </c>
       <c r="D414">
-        <v>0.1269051282051282</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13768115942028991</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B415">
         <v>6</v>
       </c>
       <c r="C415">
-        <v>0.10904326923076919</v>
+        <v>0.1152961956521739</v>
       </c>
       <c r="D415">
-        <v>0.11631282051282051</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1229826086956522</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B416">
         <v>7</v>
       </c>
       <c r="C416">
-        <v>0.1146574519230769</v>
+        <v>0.1247798913043478</v>
       </c>
       <c r="D416">
-        <v>0.1223012820512821</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13309855072463769</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B417">
         <v>8</v>
       </c>
       <c r="C417">
-        <v>0.14623918269230771</v>
+        <v>0.15024999999999999</v>
       </c>
       <c r="D417">
-        <v>0.15598846153846149</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1602666666666667</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B418">
         <v>9</v>
       </c>
       <c r="C418">
-        <v>0.13161899038461539</v>
+        <v>0.14029076086956521</v>
       </c>
       <c r="D418">
-        <v>0.1403935897435897</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14964347826086949</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B419">
         <v>10</v>
       </c>
       <c r="C419">
-        <v>0.1358810096153846</v>
+        <v>0.1572051630434782</v>
       </c>
       <c r="D419">
-        <v>0.1449397435897436</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16768550724637679</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B420">
         <v>11</v>
       </c>
       <c r="C420">
-        <v>0.15214543269230771</v>
+        <v>0.17286684782608691</v>
       </c>
       <c r="D420">
-        <v>0.16228846153846149</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18439130434782611</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B421">
         <v>12</v>
       </c>
       <c r="C421">
-        <v>0.15398557692307691</v>
+        <v>0.17196059782608689</v>
       </c>
       <c r="D421">
-        <v>0.16425128205128209</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18342463768115941</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B422">
         <v>1</v>
       </c>
       <c r="C422">
-        <v>0.17309791666666671</v>
+        <v>0.14641796874999999</v>
       </c>
       <c r="D422">
-        <v>0.18463777777777779</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1561791666666667</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B423">
         <v>2</v>
       </c>
       <c r="C423">
-        <v>0.16903750000000001</v>
+        <v>0.14869921875</v>
       </c>
       <c r="D423">
-        <v>0.1803066666666667</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15861249999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B424">
         <v>3</v>
       </c>
       <c r="C424">
-        <v>0.17235</v>
+        <v>0.14357421875000001</v>
       </c>
       <c r="D424">
-        <v>0.18384</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15314583333333329</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B425">
         <v>4</v>
       </c>
       <c r="C425">
-        <v>0.1566666666666667</v>
+        <v>0.13945312500000001</v>
       </c>
       <c r="D425">
-        <v>0.1671111111111111</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14874999999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B426">
         <v>5</v>
       </c>
       <c r="C426">
-        <v>0.13240625</v>
+        <v>0.12029296875000001</v>
       </c>
       <c r="D426">
-        <v>0.14123333333333329</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1283125</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B427">
         <v>6</v>
       </c>
       <c r="C427">
-        <v>0.1203916666666667</v>
+        <v>0.1097265625</v>
       </c>
       <c r="D427">
-        <v>0.1284177777777778</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1170416666666667</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B428">
         <v>7</v>
       </c>
       <c r="C428">
-        <v>0.1289416666666667</v>
+        <v>0.1169296875</v>
       </c>
       <c r="D428">
-        <v>0.13753777777777779</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.124725</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B429">
         <v>8</v>
       </c>
       <c r="C429">
-        <v>0.15835416666666671</v>
+        <v>0.13632421875</v>
       </c>
       <c r="D429">
-        <v>0.1689111111111111</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1454125</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B430">
         <v>9</v>
       </c>
       <c r="C430">
-        <v>0.14553125</v>
+        <v>0.1204921875</v>
       </c>
       <c r="D430">
-        <v>0.15523333333333331</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.128525</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B431">
         <v>10</v>
       </c>
       <c r="C431">
-        <v>0.1599541666666667</v>
+        <v>0.12975</v>
       </c>
       <c r="D431">
-        <v>0.17061777777777781</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1384</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B432">
         <v>11</v>
       </c>
       <c r="C432">
-        <v>0.1733875</v>
+        <v>0.15428906249999999</v>
       </c>
       <c r="D432">
-        <v>0.1849466666666667</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.164575</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B433">
         <v>12</v>
       </c>
       <c r="C433">
-        <v>0.17134374999999999</v>
+        <v>0.15499609375000001</v>
       </c>
       <c r="D433">
-        <v>0.18276666666666669</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16532916666666669</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>36</v>
       </c>
@@ -6630,13 +6624,13 @@
         <v>1</v>
       </c>
       <c r="C434">
-        <v>0.1524598214285714</v>
+        <v>0.17722460937500001</v>
       </c>
       <c r="D434">
-        <v>0.1626238095238095</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18903958333333329</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>36</v>
       </c>
@@ -6644,13 +6638,13 @@
         <v>2</v>
       </c>
       <c r="C435">
-        <v>0.15264285714285711</v>
+        <v>0.18008984375000001</v>
       </c>
       <c r="D435">
-        <v>0.16281904761904761</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1920958333333333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>36</v>
       </c>
@@ -6658,13 +6652,13 @@
         <v>3</v>
       </c>
       <c r="C436">
-        <v>0.14709375</v>
+        <v>0.17239453125000001</v>
       </c>
       <c r="D436">
-        <v>0.15690000000000001</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18388750000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>36</v>
       </c>
@@ -6672,13 +6666,13 @@
         <v>4</v>
       </c>
       <c r="C437">
-        <v>0.14126339285714279</v>
+        <v>0.15256640625000001</v>
       </c>
       <c r="D437">
-        <v>0.15068095238095239</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16273750000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>36</v>
       </c>
@@ -6686,13 +6680,13 @@
         <v>5</v>
       </c>
       <c r="C438">
-        <v>0.1220580357142857</v>
+        <v>0.12762304687500001</v>
       </c>
       <c r="D438">
-        <v>0.13019523809523811</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13613125000000001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>36</v>
       </c>
@@ -6700,13 +6694,13 @@
         <v>6</v>
       </c>
       <c r="C439">
-        <v>0.1090446428571429</v>
+        <v>0.1097734375</v>
       </c>
       <c r="D439">
-        <v>0.1163142857142857</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1170916666666667</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>36</v>
       </c>
@@ -6714,13 +6708,13 @@
         <v>7</v>
       </c>
       <c r="C440">
-        <v>0.1156339285714286</v>
+        <v>0.120244140625</v>
       </c>
       <c r="D440">
-        <v>0.1233428571428572</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.12826041666666671</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>36</v>
       </c>
@@ -6728,13 +6722,13 @@
         <v>8</v>
       </c>
       <c r="C441">
-        <v>0.13555357142857141</v>
+        <v>0.141630859375</v>
       </c>
       <c r="D441">
-        <v>0.14459047619047621</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1510729166666667</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>36</v>
       </c>
@@ -6742,13 +6736,13 @@
         <v>9</v>
       </c>
       <c r="C442">
-        <v>0.1205848214285714</v>
+        <v>0.13735937500000001</v>
       </c>
       <c r="D442">
-        <v>0.1286238095238095</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14651666666666671</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>36</v>
       </c>
@@ -6756,13 +6750,13 @@
         <v>10</v>
       </c>
       <c r="C443">
-        <v>0.13030357142857141</v>
+        <v>0.15725976562499999</v>
       </c>
       <c r="D443">
-        <v>0.13899047619047619</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16774375</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>36</v>
       </c>
@@ -6770,13 +6764,13 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>0.1567901785714286</v>
+        <v>0.17562695312500001</v>
       </c>
       <c r="D444">
-        <v>0.16724285714285711</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1873354166666667</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>36</v>
       </c>
@@ -6784,13 +6778,13 @@
         <v>12</v>
       </c>
       <c r="C445">
-        <v>0.15781249999999999</v>
+        <v>0.1781640625</v>
       </c>
       <c r="D445">
-        <v>0.16833333333333331</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19004166666666669</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>37</v>
       </c>
@@ -6798,13 +6792,13 @@
         <v>1</v>
       </c>
       <c r="C446">
-        <v>0.17155842391304349</v>
+        <v>0.17833508771929829</v>
       </c>
       <c r="D446">
-        <v>0.182995652173913</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19022409356725151</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>37</v>
       </c>
@@ -6812,13 +6806,13 @@
         <v>2</v>
       </c>
       <c r="C447">
-        <v>0.16877309782608699</v>
+        <v>0.17917565789473691</v>
       </c>
       <c r="D447">
-        <v>0.18002463768115939</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.191120701754386</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>37</v>
       </c>
@@ -6826,13 +6820,13 @@
         <v>3</v>
       </c>
       <c r="C448">
-        <v>0.16966711956521741</v>
+        <v>0.18499199561403509</v>
       </c>
       <c r="D448">
-        <v>0.1809782608695652</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19732479532163741</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>37</v>
       </c>
@@ -6840,13 +6834,13 @@
         <v>4</v>
       </c>
       <c r="C449">
-        <v>0.15335326086956519</v>
+        <v>0.16764802631578951</v>
       </c>
       <c r="D449">
-        <v>0.1635768115942029</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1788245614035088</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>37</v>
       </c>
@@ -6854,13 +6848,13 @@
         <v>5</v>
       </c>
       <c r="C450">
-        <v>0.12907608695652181</v>
+        <v>0.14456370614035091</v>
       </c>
       <c r="D450">
-        <v>0.13768115942028991</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15420128654970761</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>37</v>
       </c>
@@ -6868,13 +6862,13 @@
         <v>6</v>
       </c>
       <c r="C451">
-        <v>0.1152961956521739</v>
+        <v>0.134358552631579</v>
       </c>
       <c r="D451">
-        <v>0.1229826086956522</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1433157894736842</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>37</v>
       </c>
@@ -6882,13 +6876,13 @@
         <v>7</v>
       </c>
       <c r="C452">
-        <v>0.1247798913043478</v>
+        <v>0.13704605263157901</v>
       </c>
       <c r="D452">
-        <v>0.13309855072463769</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14618245614035091</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>37</v>
       </c>
@@ -6896,13 +6890,13 @@
         <v>8</v>
       </c>
       <c r="C453">
-        <v>0.15024999999999999</v>
+        <v>0.1543482456140351</v>
       </c>
       <c r="D453">
-        <v>0.1602666666666667</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16463812865497079</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>37</v>
       </c>
@@ -6910,13 +6904,13 @@
         <v>9</v>
       </c>
       <c r="C454">
-        <v>0.14029076086956521</v>
+        <v>0.17457050438596489</v>
       </c>
       <c r="D454">
-        <v>0.14964347826086949</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1862085380116959</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>37</v>
       </c>
@@ -6924,13 +6918,13 @@
         <v>10</v>
       </c>
       <c r="C455">
-        <v>0.1572051630434782</v>
+        <v>0.1787523026315789</v>
       </c>
       <c r="D455">
-        <v>0.16768550724637679</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1906691228070175</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>37</v>
       </c>
@@ -6938,13 +6932,13 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>0.17286684782608691</v>
+        <v>0.1878961622807018</v>
       </c>
       <c r="D456">
-        <v>0.18439130434782611</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.20042257309941519</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>37</v>
       </c>
@@ -6952,13 +6946,13 @@
         <v>12</v>
       </c>
       <c r="C457">
-        <v>0.17196059782608689</v>
+        <v>0.18338903508771931</v>
       </c>
       <c r="D457">
-        <v>0.18342463768115941</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1956149707602339</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>38</v>
       </c>
@@ -6966,13 +6960,13 @@
         <v>1</v>
       </c>
       <c r="C458">
-        <v>0.14641796874999999</v>
+        <v>0.17914277156549521</v>
       </c>
       <c r="D458">
-        <v>0.1561791666666667</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1910856230031949</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>38</v>
       </c>
@@ -6980,13 +6974,13 @@
         <v>2</v>
       </c>
       <c r="C459">
-        <v>0.14869921875</v>
+        <v>0.17914673189563371</v>
       </c>
       <c r="D459">
-        <v>0.15861249999999999</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1910898473553426</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>38</v>
       </c>
@@ -6994,13 +6988,13 @@
         <v>3</v>
       </c>
       <c r="C460">
-        <v>0.14357421875000001</v>
+        <v>0.18482963924387649</v>
       </c>
       <c r="D460">
-        <v>0.15314583333333329</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19715161519346819</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>38</v>
       </c>
@@ -7008,13 +7002,13 @@
         <v>4</v>
       </c>
       <c r="C461">
-        <v>0.13945312500000001</v>
+        <v>0.17289789669861561</v>
       </c>
       <c r="D461">
-        <v>0.14874999999999999</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18442442314518989</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>38</v>
       </c>
@@ -7022,13 +7016,13 @@
         <v>5</v>
       </c>
       <c r="C462">
-        <v>0.12029296875000001</v>
+        <v>0.15427416134185309</v>
       </c>
       <c r="D462">
-        <v>0.1283125</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16455910543130989</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>38</v>
       </c>
@@ -7036,13 +7030,13 @@
         <v>6</v>
       </c>
       <c r="C463">
-        <v>0.1097265625</v>
+        <v>0.1435908213525027</v>
       </c>
       <c r="D463">
-        <v>0.1170416666666667</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15316354277600289</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>38</v>
       </c>
@@ -7050,13 +7044,13 @@
         <v>7</v>
       </c>
       <c r="C464">
-        <v>0.1169296875</v>
+        <v>0.14994505457933971</v>
       </c>
       <c r="D464">
-        <v>0.124725</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15994139155129569</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>38</v>
       </c>
@@ -7064,13 +7058,13 @@
         <v>8</v>
       </c>
       <c r="C465">
-        <v>0.13632421875</v>
+        <v>0.1719940428647497</v>
       </c>
       <c r="D465">
-        <v>0.1454125</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1834603123890664</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>38</v>
       </c>
@@ -7078,13 +7072,13 @@
         <v>9</v>
       </c>
       <c r="C466">
-        <v>0.1204921875</v>
+        <v>0.19131486288604899</v>
       </c>
       <c r="D466">
-        <v>0.128525</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.20406918707845231</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>38</v>
       </c>
@@ -7092,13 +7086,13 @@
         <v>10</v>
       </c>
       <c r="C467">
-        <v>0.12975</v>
+        <v>0.19094998003194891</v>
       </c>
       <c r="D467">
-        <v>0.1384</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.2036799787007455</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>38</v>
       </c>
@@ -7106,13 +7100,13 @@
         <v>11</v>
       </c>
       <c r="C468">
-        <v>0.15428906249999999</v>
+        <v>0.1927333932374867</v>
       </c>
       <c r="D468">
-        <v>0.164575</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.2055822861199858</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>38</v>
       </c>
@@ -7120,13 +7114,13 @@
         <v>12</v>
       </c>
       <c r="C469">
-        <v>0.15499609375000001</v>
+        <v>0.18387466719914811</v>
       </c>
       <c r="D469">
-        <v>0.16532916666666669</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19613297834575791</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>39</v>
       </c>
@@ -7134,13 +7128,13 @@
         <v>1</v>
       </c>
       <c r="C470">
-        <v>0.17722460937500001</v>
+        <v>0.1296397778170674</v>
       </c>
       <c r="D470">
-        <v>0.18903958333333329</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13828242967153859</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>39</v>
       </c>
@@ -7148,13 +7142,13 @@
         <v>2</v>
       </c>
       <c r="C471">
-        <v>0.18008984375000001</v>
+        <v>0.13334824375294671</v>
       </c>
       <c r="D471">
-        <v>0.1920958333333333</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14223812666980981</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>39</v>
       </c>
@@ -7162,13 +7156,13 @@
         <v>3</v>
       </c>
       <c r="C472">
-        <v>0.17239453125000001</v>
+        <v>0.13799124823196601</v>
       </c>
       <c r="D472">
-        <v>0.18388750000000001</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14719066478076381</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>39</v>
       </c>
@@ -7176,13 +7170,13 @@
         <v>4</v>
       </c>
       <c r="C473">
-        <v>0.15256640625000001</v>
+        <v>0.14515143210749651</v>
       </c>
       <c r="D473">
-        <v>0.16273750000000001</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15482819424799621</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>39</v>
       </c>
@@ -7190,13 +7184,13 @@
         <v>5</v>
       </c>
       <c r="C474">
-        <v>0.12762304687500001</v>
+        <v>0.1365396923620934</v>
       </c>
       <c r="D474">
-        <v>0.13613125000000001</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14564233851956629</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>39</v>
       </c>
@@ -7204,13 +7198,13 @@
         <v>6</v>
       </c>
       <c r="C475">
-        <v>0.1097734375</v>
+        <v>0.15043333038661011</v>
       </c>
       <c r="D475">
-        <v>0.1170916666666667</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16046221907905081</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>39</v>
       </c>
@@ -7218,13 +7212,13 @@
         <v>7</v>
       </c>
       <c r="C476">
-        <v>0.120244140625</v>
+        <v>0.15526262670909949</v>
       </c>
       <c r="D476">
-        <v>0.12826041666666671</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16561346848970609</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>39</v>
       </c>
@@ -7232,13 +7226,13 @@
         <v>8</v>
       </c>
       <c r="C477">
-        <v>0.141630859375</v>
+        <v>0.164575568717586</v>
       </c>
       <c r="D477">
-        <v>0.1510729166666667</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17554727329875849</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>39</v>
       </c>
@@ -7246,13 +7240,13 @@
         <v>9</v>
       </c>
       <c r="C478">
-        <v>0.13735937500000001</v>
+        <v>0.15665010608203681</v>
       </c>
       <c r="D478">
-        <v>0.14651666666666671</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1670934464875059</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>39</v>
       </c>
@@ -7260,13 +7254,13 @@
         <v>10</v>
       </c>
       <c r="C479">
-        <v>0.15725976562499999</v>
+        <v>0.1544261698491278</v>
       </c>
       <c r="D479">
-        <v>0.16774375</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16472124783906961</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>39</v>
       </c>
@@ -7274,13 +7268,13 @@
         <v>11</v>
       </c>
       <c r="C480">
-        <v>0.17562695312500001</v>
+        <v>0.14387486739745409</v>
       </c>
       <c r="D480">
-        <v>0.1873354166666667</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15346652522395099</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>39</v>
       </c>
@@ -7288,13 +7282,13 @@
         <v>12</v>
       </c>
       <c r="C481">
-        <v>0.1781640625</v>
+        <v>0.1360459099481377</v>
       </c>
       <c r="D481">
-        <v>0.19004166666666669</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14511563727801349</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>40</v>
       </c>
@@ -7302,13 +7296,13 @@
         <v>1</v>
       </c>
       <c r="C482">
-        <v>0.17833508771929829</v>
+        <v>0.17839106075697209</v>
       </c>
       <c r="D482">
-        <v>0.19022409356725151</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19028379814077029</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>40</v>
       </c>
@@ -7316,13 +7310,13 @@
         <v>2</v>
       </c>
       <c r="C483">
-        <v>0.17917565789473691</v>
+        <v>0.1824517554780877</v>
       </c>
       <c r="D483">
-        <v>0.191120701754386</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1946152058432935</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>40</v>
       </c>
@@ -7330,13 +7324,13 @@
         <v>3</v>
       </c>
       <c r="C484">
-        <v>0.18499199561403509</v>
+        <v>0.1862549178286852</v>
       </c>
       <c r="D484">
-        <v>0.19732479532163741</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19867191235059761</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>40</v>
       </c>
@@ -7344,13 +7338,13 @@
         <v>4</v>
       </c>
       <c r="C485">
-        <v>0.16764802631578951</v>
+        <v>0.1790860931274901</v>
       </c>
       <c r="D485">
-        <v>0.1788245614035088</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19102516600265601</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>40</v>
       </c>
@@ -7358,13 +7352,13 @@
         <v>5</v>
       </c>
       <c r="C486">
-        <v>0.14456370614035091</v>
+        <v>0.1686540089641434</v>
       </c>
       <c r="D486">
-        <v>0.15420128654970761</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17989760956175299</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>40</v>
       </c>
@@ -7372,13 +7366,13 @@
         <v>6</v>
       </c>
       <c r="C487">
-        <v>0.134358552631579</v>
+        <v>0.15755328685258971</v>
       </c>
       <c r="D487">
-        <v>0.1433157894736842</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.168056839309429</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>40</v>
       </c>
@@ -7386,13 +7380,13 @@
         <v>7</v>
       </c>
       <c r="C488">
-        <v>0.13704605263157901</v>
+        <v>0.1650497385458167</v>
       </c>
       <c r="D488">
-        <v>0.14618245614035091</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1760530544488712</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>40</v>
       </c>
@@ -7400,13 +7394,13 @@
         <v>8</v>
       </c>
       <c r="C489">
-        <v>0.1543482456140351</v>
+        <v>0.1852102838645418</v>
       </c>
       <c r="D489">
-        <v>0.16463812865497079</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19755763612217789</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>40</v>
       </c>
@@ -7414,13 +7408,13 @@
         <v>9</v>
       </c>
       <c r="C490">
-        <v>0.17457050438596489</v>
+        <v>0.19446974601593631</v>
       </c>
       <c r="D490">
-        <v>0.1862085380116959</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.20743439575033201</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>40</v>
       </c>
@@ -7428,13 +7422,13 @@
         <v>10</v>
       </c>
       <c r="C491">
-        <v>0.1787523026315789</v>
+        <v>0.19498829681274901</v>
       </c>
       <c r="D491">
-        <v>0.1906691228070175</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.2079875166002656</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>40</v>
       </c>
@@ -7442,13 +7436,13 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>0.1878961622807018</v>
+        <v>0.19353068974103591</v>
       </c>
       <c r="D492">
-        <v>0.20042257309941519</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.2064327357237716</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>40</v>
       </c>
@@ -7456,13 +7450,13 @@
         <v>12</v>
       </c>
       <c r="C493">
-        <v>0.18338903508771931</v>
+        <v>0.18044434760956171</v>
       </c>
       <c r="D493">
-        <v>0.1956149707602339</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19247397078353251</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>41</v>
       </c>
@@ -7470,13 +7464,13 @@
         <v>1</v>
       </c>
       <c r="C494">
-        <v>0.17914277156549521</v>
+        <v>0.1609065420560748</v>
       </c>
       <c r="D494">
-        <v>0.1910856230031949</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17163364485981311</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>41</v>
       </c>
@@ -7484,13 +7478,13 @@
         <v>2</v>
       </c>
       <c r="C495">
-        <v>0.17914673189563371</v>
+        <v>0.17572293613707171</v>
       </c>
       <c r="D495">
-        <v>0.1910898473553426</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18743779854620979</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>41</v>
       </c>
@@ -7498,13 +7492,13 @@
         <v>3</v>
       </c>
       <c r="C496">
-        <v>0.18482963924387649</v>
+        <v>0.16814661214953269</v>
       </c>
       <c r="D496">
-        <v>0.19715161519346819</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1793563862928349</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>41</v>
       </c>
@@ -7512,13 +7506,13 @@
         <v>4</v>
       </c>
       <c r="C497">
-        <v>0.17289789669861561</v>
+        <v>0.17035406931464181</v>
       </c>
       <c r="D497">
-        <v>0.18442442314518989</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1817110072689512</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>41</v>
       </c>
@@ -7526,13 +7520,13 @@
         <v>5</v>
       </c>
       <c r="C498">
-        <v>0.15427416134185309</v>
+        <v>0.15367666147455861</v>
       </c>
       <c r="D498">
-        <v>0.16455910543130989</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16392177223952931</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>41</v>
       </c>
@@ -7540,13 +7534,13 @@
         <v>6</v>
       </c>
       <c r="C499">
-        <v>0.1435908213525027</v>
+        <v>0.14943743509865001</v>
       </c>
       <c r="D499">
-        <v>0.15316354277600289</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15939993077189341</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>41</v>
       </c>
@@ -7554,13 +7548,13 @@
         <v>7</v>
       </c>
       <c r="C500">
-        <v>0.14994505457933971</v>
+        <v>0.15520619158878499</v>
       </c>
       <c r="D500">
-        <v>0.15994139155129569</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16555327102803741</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>41</v>
       </c>
@@ -7568,13 +7562,13 @@
         <v>8</v>
       </c>
       <c r="C501">
-        <v>0.1719940428647497</v>
+        <v>0.17918759735202491</v>
       </c>
       <c r="D501">
-        <v>0.1834603123890664</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1911334371754933</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>41</v>
       </c>
@@ -7582,13 +7576,13 @@
         <v>9</v>
       </c>
       <c r="C502">
-        <v>0.19131486288604899</v>
+        <v>0.16532729750778821</v>
       </c>
       <c r="D502">
-        <v>0.20406918707845231</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17634911734164069</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>41</v>
       </c>
@@ -7596,13 +7590,13 @@
         <v>10</v>
       </c>
       <c r="C503">
-        <v>0.19094998003194891</v>
+        <v>0.1687779075804777</v>
       </c>
       <c r="D503">
-        <v>0.2036799787007455</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1800297680858429</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>41</v>
       </c>
@@ -7610,13 +7604,13 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>0.1927333932374867</v>
+        <v>0.1661841900311527</v>
       </c>
       <c r="D504">
-        <v>0.2055822861199858</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17726313603322949</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>41</v>
       </c>
@@ -7624,13 +7618,13 @@
         <v>12</v>
       </c>
       <c r="C505">
-        <v>0.18387466719914811</v>
+        <v>0.16921430425752859</v>
       </c>
       <c r="D505">
-        <v>0.19613297834575791</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18049525787469711</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>42</v>
       </c>
@@ -7638,13 +7632,13 @@
         <v>1</v>
       </c>
       <c r="C506">
-        <v>0.1296397778170674</v>
+        <v>0.17803125</v>
       </c>
       <c r="D506">
-        <v>0.13828242967153859</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18990000000000001</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>42</v>
       </c>
@@ -7652,13 +7646,13 @@
         <v>2</v>
       </c>
       <c r="C507">
-        <v>0.13334824375294671</v>
+        <v>0.17828453947368419</v>
       </c>
       <c r="D507">
-        <v>0.14223812666980981</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19017017543859649</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>42</v>
       </c>
@@ -7666,13 +7660,13 @@
         <v>3</v>
       </c>
       <c r="C508">
-        <v>0.13799124823196601</v>
+        <v>0.18232072368421051</v>
       </c>
       <c r="D508">
-        <v>0.14719066478076381</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19447543859649119</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>42</v>
       </c>
@@ -7680,13 +7674,13 @@
         <v>4</v>
       </c>
       <c r="C509">
-        <v>0.14515143210749651</v>
+        <v>0.1626430921052632</v>
       </c>
       <c r="D509">
-        <v>0.15482819424799621</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17348596491228069</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>42</v>
       </c>
@@ -7694,13 +7688,13 @@
         <v>5</v>
       </c>
       <c r="C510">
-        <v>0.1365396923620934</v>
+        <v>0.14100822368421051</v>
       </c>
       <c r="D510">
-        <v>0.14564233851956629</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1504087719298246</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>42</v>
       </c>
@@ -7708,13 +7702,13 @@
         <v>6</v>
       </c>
       <c r="C511">
-        <v>0.15043333038661011</v>
+        <v>0.1341167763157895</v>
       </c>
       <c r="D511">
-        <v>0.16046221907905081</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14305789473684211</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>42</v>
       </c>
@@ -7722,13 +7716,13 @@
         <v>7</v>
       </c>
       <c r="C512">
-        <v>0.15526262670909949</v>
+        <v>0.13649671052631579</v>
       </c>
       <c r="D512">
-        <v>0.16561346848970609</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14559649122807011</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>42</v>
       </c>
@@ -7736,13 +7730,13 @@
         <v>8</v>
       </c>
       <c r="C513">
-        <v>0.164575568717586</v>
+        <v>0.1490855263157895</v>
       </c>
       <c r="D513">
-        <v>0.17554727329875849</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15902456140350879</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>42</v>
       </c>
@@ -7750,13 +7744,13 @@
         <v>9</v>
       </c>
       <c r="C514">
-        <v>0.15665010608203681</v>
+        <v>0.16817434210526319</v>
       </c>
       <c r="D514">
-        <v>0.1670934464875059</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1793859649122807</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>42</v>
       </c>
@@ -7764,13 +7758,13 @@
         <v>10</v>
       </c>
       <c r="C515">
-        <v>0.1544261698491278</v>
+        <v>0.1713026315789474</v>
       </c>
       <c r="D515">
-        <v>0.16472124783906961</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18272280701754379</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>42</v>
       </c>
@@ -7778,13 +7772,13 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>0.14387486739745409</v>
+        <v>0.179985197368421</v>
       </c>
       <c r="D516">
-        <v>0.15346652522395099</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19198421052631581</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>42</v>
       </c>
@@ -7792,13 +7786,13 @@
         <v>12</v>
       </c>
       <c r="C517">
-        <v>0.1360459099481377</v>
+        <v>0.17857565789473681</v>
       </c>
       <c r="D517">
-        <v>0.14511563727801349</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.190480701754386</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>43</v>
       </c>
@@ -7806,13 +7800,13 @@
         <v>1</v>
       </c>
       <c r="C518">
-        <v>0.17839106075697209</v>
+        <v>0.15649654200819671</v>
       </c>
       <c r="D518">
-        <v>0.19028379814077029</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1669296448087432</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>43</v>
       </c>
@@ -7820,13 +7814,13 @@
         <v>2</v>
       </c>
       <c r="C519">
-        <v>0.1824517554780877</v>
+        <v>0.1710213883196722</v>
       </c>
       <c r="D519">
-        <v>0.1946152058432935</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1824228142076503</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>43</v>
       </c>
@@ -7834,13 +7828,13 @@
         <v>3</v>
       </c>
       <c r="C520">
-        <v>0.1862549178286852</v>
+        <v>0.16445017930327871</v>
       </c>
       <c r="D520">
-        <v>0.19867191235059761</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17541352459016391</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>43</v>
       </c>
@@ -7848,13 +7842,13 @@
         <v>4</v>
       </c>
       <c r="C521">
-        <v>0.1790860931274901</v>
+        <v>0.16468737192622951</v>
       </c>
       <c r="D521">
-        <v>0.19102516600265601</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1756665300546448</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>43</v>
       </c>
@@ -7862,13 +7856,13 @@
         <v>5</v>
       </c>
       <c r="C522">
-        <v>0.1686540089641434</v>
+        <v>0.1448053278688525</v>
       </c>
       <c r="D522">
-        <v>0.17989760956175299</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15445901639344259</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>43</v>
       </c>
@@ -7876,13 +7870,13 @@
         <v>6</v>
       </c>
       <c r="C523">
-        <v>0.15755328685258971</v>
+        <v>0.1405207479508197</v>
       </c>
       <c r="D523">
-        <v>0.168056839309429</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14988879781420761</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>43</v>
       </c>
@@ -7890,13 +7884,13 @@
         <v>7</v>
       </c>
       <c r="C524">
-        <v>0.1650497385458167</v>
+        <v>0.1450266393442623</v>
       </c>
       <c r="D524">
-        <v>0.1760530544488712</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1546950819672131</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>43</v>
       </c>
@@ -7904,13 +7898,13 @@
         <v>8</v>
       </c>
       <c r="C525">
-        <v>0.1852102838645418</v>
+        <v>0.1718347848360656</v>
       </c>
       <c r="D525">
-        <v>0.19755763612217789</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18329043715846999</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>43</v>
       </c>
@@ -7918,13 +7912,13 @@
         <v>9</v>
       </c>
       <c r="C526">
-        <v>0.19446974601593631</v>
+        <v>0.15888204405737699</v>
       </c>
       <c r="D526">
-        <v>0.20743439575033201</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1694741803278689</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>43</v>
       </c>
@@ -7932,13 +7926,13 @@
         <v>10</v>
       </c>
       <c r="C527">
-        <v>0.19498829681274901</v>
+        <v>0.16201370389344261</v>
       </c>
       <c r="D527">
-        <v>0.2079875166002656</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17281461748633881</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>43</v>
       </c>
@@ -7946,13 +7940,13 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>0.19353068974103591</v>
+        <v>0.16301600922131149</v>
       </c>
       <c r="D528">
-        <v>0.2064327357237716</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17388374316939889</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>43</v>
       </c>
@@ -7960,13 +7954,13 @@
         <v>12</v>
       </c>
       <c r="C529">
-        <v>0.18044434760956171</v>
+        <v>0.1670404713114754</v>
       </c>
       <c r="D529">
-        <v>0.19247397078353251</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1781765027322405</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>44</v>
       </c>
@@ -7974,13 +7968,13 @@
         <v>1</v>
       </c>
       <c r="C530">
-        <v>0.1609065420560748</v>
+        <v>0.16309481697307951</v>
       </c>
       <c r="D530">
-        <v>0.17163364485981311</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17396780477128471</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>44</v>
       </c>
@@ -7988,13 +7982,13 @@
         <v>2</v>
       </c>
       <c r="C531">
-        <v>0.17572293613707171</v>
+        <v>0.17073083552199611</v>
       </c>
       <c r="D531">
-        <v>0.18743779854620979</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18211289122346239</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>44</v>
       </c>
@@ -8002,13 +7996,13 @@
         <v>3</v>
       </c>
       <c r="C532">
-        <v>0.16814661214953269</v>
+        <v>0.1721364597012475</v>
       </c>
       <c r="D532">
-        <v>0.1793563862928349</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18361222368133071</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>44</v>
       </c>
@@ -8016,13 +8010,13 @@
         <v>4</v>
       </c>
       <c r="C533">
-        <v>0.17035406931464181</v>
+        <v>0.16864845288903479</v>
       </c>
       <c r="D533">
-        <v>0.1817110072689512</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17989168308163711</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>44</v>
       </c>
@@ -8030,13 +8024,13 @@
         <v>5</v>
       </c>
       <c r="C534">
-        <v>0.15367666147455861</v>
+        <v>0.14888565947143789</v>
       </c>
       <c r="D534">
-        <v>0.16392177223952931</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15881137010286711</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>44</v>
       </c>
@@ -8044,13 +8038,13 @@
         <v>6</v>
       </c>
       <c r="C535">
-        <v>0.14943743509865001</v>
+        <v>0.1448407850459619</v>
       </c>
       <c r="D535">
-        <v>0.15939993077189341</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15449683738235939</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>44</v>
       </c>
@@ -8058,13 +8052,13 @@
         <v>7</v>
       </c>
       <c r="C536">
-        <v>0.15520619158878499</v>
+        <v>0.14835562007550879</v>
       </c>
       <c r="D536">
-        <v>0.16555327102803741</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15824599474720949</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>44</v>
       </c>
@@ -8072,13 +8066,13 @@
         <v>8</v>
       </c>
       <c r="C537">
-        <v>0.17918759735202491</v>
+        <v>0.1723959701247538</v>
       </c>
       <c r="D537">
-        <v>0.1911334371754933</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18388903479973731</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>44</v>
       </c>
@@ -8086,13 +8080,13 @@
         <v>9</v>
       </c>
       <c r="C538">
-        <v>0.16532729750778821</v>
+        <v>0.16231953791858181</v>
       </c>
       <c r="D538">
-        <v>0.17634911734164069</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1731408404464872</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>44</v>
       </c>
@@ -8100,13 +8094,13 @@
         <v>10</v>
       </c>
       <c r="C539">
-        <v>0.1687779075804777</v>
+        <v>0.16529626969796449</v>
       </c>
       <c r="D539">
-        <v>0.1800297680858429</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1763160210111622</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>44</v>
       </c>
@@ -8114,13 +8108,13 @@
         <v>11</v>
       </c>
       <c r="C540">
-        <v>0.1661841900311527</v>
+        <v>0.16762966800722259</v>
       </c>
       <c r="D540">
-        <v>0.17726313603322949</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17880497920770411</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>44</v>
       </c>
@@ -8128,13 +8122,13 @@
         <v>12</v>
       </c>
       <c r="C541">
-        <v>0.16921430425752859</v>
+        <v>0.1709125287261983</v>
       </c>
       <c r="D541">
-        <v>0.18049525787469711</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18230669730794491</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>45</v>
       </c>
@@ -8142,13 +8136,13 @@
         <v>1</v>
       </c>
       <c r="C542">
-        <v>0.17803125</v>
+        <v>0.14650188180653431</v>
       </c>
       <c r="D542">
-        <v>0.18990000000000001</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15626867392696989</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>45</v>
       </c>
@@ -8156,13 +8150,13 @@
         <v>2</v>
       </c>
       <c r="C543">
-        <v>0.17828453947368419</v>
+        <v>0.15157105221012171</v>
       </c>
       <c r="D543">
-        <v>0.19017017543859649</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1616757890241298</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>45</v>
       </c>
@@ -8170,13 +8164,13 @@
         <v>3</v>
       </c>
       <c r="C544">
-        <v>0.18232072368421051</v>
+        <v>0.15357902786675209</v>
       </c>
       <c r="D544">
-        <v>0.19447543859649119</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16381762972453559</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>45</v>
       </c>
@@ -8184,13 +8178,13 @@
         <v>4</v>
       </c>
       <c r="C545">
-        <v>0.1626430921052632</v>
+        <v>0.15969983183856501</v>
       </c>
       <c r="D545">
-        <v>0.17348596491228069</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17034648729446941</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>45</v>
       </c>
@@ -8198,13 +8192,13 @@
         <v>5</v>
       </c>
       <c r="C546">
-        <v>0.14100822368421051</v>
+        <v>0.158932282991672</v>
       </c>
       <c r="D546">
-        <v>0.1504087719298246</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16952776852445009</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>45</v>
       </c>
@@ -8212,13 +8206,13 @@
         <v>6</v>
       </c>
       <c r="C547">
-        <v>0.1341167763157895</v>
+        <v>0.16342455557335039</v>
       </c>
       <c r="D547">
-        <v>0.14305789473684211</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1743195259449071</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>45</v>
       </c>
@@ -8226,13 +8220,13 @@
         <v>7</v>
       </c>
       <c r="C548">
-        <v>0.13649671052631579</v>
+        <v>0.16885596172325429</v>
       </c>
       <c r="D548">
-        <v>0.14559649122807011</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18011302583813801</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>45</v>
       </c>
@@ -8240,13 +8234,13 @@
         <v>8</v>
       </c>
       <c r="C549">
-        <v>0.1490855263157895</v>
+        <v>0.1821711923446509</v>
       </c>
       <c r="D549">
-        <v>0.15902456140350879</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19431593850096091</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>45</v>
       </c>
@@ -8254,13 +8248,13 @@
         <v>9</v>
       </c>
       <c r="C550">
-        <v>0.16817434210526319</v>
+        <v>0.1650057214926329</v>
       </c>
       <c r="D550">
-        <v>0.1793859649122807</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17600610292547511</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>45</v>
       </c>
@@ -8268,13 +8262,13 @@
         <v>10</v>
       </c>
       <c r="C551">
-        <v>0.1713026315789474</v>
+        <v>0.159140715086483</v>
       </c>
       <c r="D551">
-        <v>0.18272280701754379</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16975009609224859</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>45</v>
       </c>
@@ -8282,13 +8276,13 @@
         <v>11</v>
       </c>
       <c r="C552">
-        <v>0.179985197368421</v>
+        <v>0.1515299247277386</v>
       </c>
       <c r="D552">
-        <v>0.19198421052631581</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1616319197095879</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>45</v>
       </c>
@@ -8296,13 +8290,13 @@
         <v>12</v>
       </c>
       <c r="C553">
-        <v>0.17857565789473681</v>
+        <v>0.14978692745035241</v>
       </c>
       <c r="D553">
-        <v>0.190480701754386</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1597727226137092</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>46</v>
       </c>
@@ -8310,13 +8304,13 @@
         <v>1</v>
       </c>
       <c r="C554">
-        <v>0.15649654200819671</v>
+        <v>0.16527873021853809</v>
       </c>
       <c r="D554">
-        <v>0.1669296448087432</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1762973122331073</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>46</v>
       </c>
@@ -8324,13 +8318,13 @@
         <v>2</v>
       </c>
       <c r="C555">
-        <v>0.1710213883196722</v>
+        <v>0.1694072626224567</v>
       </c>
       <c r="D555">
-        <v>0.1824228142076503</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1807010801306205</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>46</v>
       </c>
@@ -8338,13 +8332,13 @@
         <v>3</v>
       </c>
       <c r="C556">
-        <v>0.16445017930327871</v>
+        <v>0.17214586473247931</v>
       </c>
       <c r="D556">
-        <v>0.17541352459016391</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18362225571464461</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>46</v>
       </c>
@@ -8352,13 +8346,13 @@
         <v>4</v>
       </c>
       <c r="C557">
-        <v>0.16468737192622951</v>
+        <v>0.16291788338357199</v>
       </c>
       <c r="D557">
-        <v>0.1756665300546448</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17377907560914341</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>46</v>
       </c>
@@ -8366,13 +8360,13 @@
         <v>5</v>
       </c>
       <c r="C558">
-        <v>0.1448053278688525</v>
+        <v>0.1653571966842502</v>
       </c>
       <c r="D558">
-        <v>0.15445901639344259</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17638100979653359</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>46</v>
       </c>
@@ -8380,13 +8374,13 @@
         <v>6</v>
       </c>
       <c r="C559">
-        <v>0.1405207479508197</v>
+        <v>0.16457029483798041</v>
       </c>
       <c r="D559">
-        <v>0.14988879781420761</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1755416478271791</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>46</v>
       </c>
@@ -8394,13 +8388,13 @@
         <v>7</v>
       </c>
       <c r="C560">
-        <v>0.1450266393442623</v>
+        <v>0.17444967501883951</v>
       </c>
       <c r="D560">
-        <v>0.1546950819672131</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1860796533534288</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>46</v>
       </c>
@@ -8408,13 +8402,13 @@
         <v>8</v>
       </c>
       <c r="C561">
-        <v>0.1718347848360656</v>
+        <v>0.19512384608138661</v>
       </c>
       <c r="D561">
-        <v>0.18329043715846999</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.20813210248681241</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>46</v>
       </c>
@@ -8422,13 +8416,13 @@
         <v>9</v>
       </c>
       <c r="C562">
-        <v>0.15888204405737699</v>
+        <v>0.20335140354182371</v>
       </c>
       <c r="D562">
-        <v>0.1694741803278689</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.21690816377794531</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>46</v>
       </c>
@@ -8436,13 +8430,13 @@
         <v>10</v>
       </c>
       <c r="C563">
-        <v>0.16201370389344261</v>
+        <v>0.1984938300678222</v>
       </c>
       <c r="D563">
-        <v>0.17281461748633881</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.21172675207234359</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>46</v>
       </c>
@@ -8450,13 +8444,13 @@
         <v>11</v>
       </c>
       <c r="C564">
-        <v>0.16301600922131149</v>
+        <v>0.19283275244913339</v>
       </c>
       <c r="D564">
-        <v>0.17388374316939889</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.2056882692790756</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>46</v>
       </c>
@@ -8464,13 +8458,13 @@
         <v>12</v>
       </c>
       <c r="C565">
-        <v>0.1670404713114754</v>
+        <v>0.1749462603617182</v>
       </c>
       <c r="D565">
-        <v>0.1781765027322405</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18660934438583271</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>47</v>
       </c>
@@ -8478,13 +8472,13 @@
         <v>1</v>
       </c>
       <c r="C566">
-        <v>0.16309481697307951</v>
+        <v>0.1674458165322581</v>
       </c>
       <c r="D566">
-        <v>0.17396780477128471</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.178608870967742</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>47</v>
       </c>
@@ -8492,13 +8486,13 @@
         <v>2</v>
       </c>
       <c r="C567">
-        <v>0.17073083552199611</v>
+        <v>0.18468027553763439</v>
       </c>
       <c r="D567">
-        <v>0.18211289122346239</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19699229390681</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>47</v>
       </c>
@@ -8506,13 +8500,13 @@
         <v>3</v>
       </c>
       <c r="C568">
-        <v>0.1721364597012475</v>
+        <v>0.1625694724462366</v>
       </c>
       <c r="D568">
-        <v>0.18361222368133071</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1734074372759857</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>47</v>
       </c>
@@ -8520,13 +8514,13 @@
         <v>4</v>
       </c>
       <c r="C569">
-        <v>0.16864845288903479</v>
+        <v>0.1563480342741935</v>
       </c>
       <c r="D569">
-        <v>0.17989168308163711</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16677123655913981</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>47</v>
       </c>
@@ -8534,13 +8528,13 @@
         <v>5</v>
       </c>
       <c r="C570">
-        <v>0.14888565947143789</v>
+        <v>0.14031199596774191</v>
       </c>
       <c r="D570">
-        <v>0.15881137010286711</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14966612903225809</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>47</v>
       </c>
@@ -8548,13 +8542,13 @@
         <v>6</v>
       </c>
       <c r="C571">
-        <v>0.1448407850459619</v>
+        <v>0.13717288306451611</v>
       </c>
       <c r="D571">
-        <v>0.15449683738235939</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14631774193548391</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>47</v>
       </c>
@@ -8562,13 +8556,13 @@
         <v>7</v>
       </c>
       <c r="C572">
-        <v>0.14835562007550879</v>
+        <v>0.1371765793010753</v>
       </c>
       <c r="D572">
-        <v>0.15824599474720949</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14632168458781361</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>47</v>
       </c>
@@ -8576,13 +8570,13 @@
         <v>8</v>
       </c>
       <c r="C573">
-        <v>0.1723959701247538</v>
+        <v>0.15836651545698921</v>
       </c>
       <c r="D573">
-        <v>0.18388903479973731</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16892428315412189</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>47</v>
       </c>
@@ -8590,13 +8584,13 @@
         <v>9</v>
       </c>
       <c r="C574">
-        <v>0.16231953791858181</v>
+        <v>0.1526003864247312</v>
       </c>
       <c r="D574">
-        <v>0.1731408404464872</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1627737455197133</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>47</v>
       </c>
@@ -8604,13 +8598,13 @@
         <v>10</v>
       </c>
       <c r="C575">
-        <v>0.16529626969796449</v>
+        <v>0.15159677419354839</v>
       </c>
       <c r="D575">
-        <v>0.1763160210111622</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16170322580645161</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>47</v>
       </c>
@@ -8618,13 +8612,13 @@
         <v>11</v>
       </c>
       <c r="C576">
-        <v>0.16762966800722259</v>
+        <v>0.14262373991935481</v>
       </c>
       <c r="D576">
-        <v>0.17880497920770411</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15213198924731181</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>47</v>
       </c>
@@ -8632,13 +8626,13 @@
         <v>12</v>
       </c>
       <c r="C577">
-        <v>0.1709125287261983</v>
+        <v>0.15954637096774191</v>
       </c>
       <c r="D577">
-        <v>0.18230669730794491</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17018279569892469</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>48</v>
       </c>
@@ -8646,13 +8640,13 @@
         <v>1</v>
       </c>
       <c r="C578">
-        <v>0.14650188180653431</v>
+        <v>0.18036638513513509</v>
       </c>
       <c r="D578">
-        <v>0.15626867392696989</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1923908108108108</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>48</v>
       </c>
@@ -8660,13 +8654,13 @@
         <v>2</v>
       </c>
       <c r="C579">
-        <v>0.15157105221012171</v>
+        <v>0.1807597972972973</v>
       </c>
       <c r="D579">
-        <v>0.1616757890241298</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1928104504504505</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>48</v>
       </c>
@@ -8674,13 +8668,13 @@
         <v>3</v>
       </c>
       <c r="C580">
-        <v>0.15357902786675209</v>
+        <v>0.18444476351351349</v>
       </c>
       <c r="D580">
-        <v>0.16381762972453559</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1967410810810811</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>48</v>
       </c>
@@ -8688,13 +8682,13 @@
         <v>4</v>
       </c>
       <c r="C581">
-        <v>0.15969983183856501</v>
+        <v>0.16612939189189191</v>
       </c>
       <c r="D581">
-        <v>0.17034648729446941</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1772046846846847</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>48</v>
       </c>
@@ -8702,13 +8696,13 @@
         <v>5</v>
       </c>
       <c r="C582">
-        <v>0.158932282991672</v>
+        <v>0.14441739864864861</v>
       </c>
       <c r="D582">
-        <v>0.16952776852445009</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15404522522522521</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>48</v>
       </c>
@@ -8716,13 +8710,13 @@
         <v>6</v>
       </c>
       <c r="C583">
-        <v>0.16342455557335039</v>
+        <v>0.1366388513513514</v>
       </c>
       <c r="D583">
-        <v>0.1743195259449071</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14574810810810809</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>48</v>
       </c>
@@ -8730,13 +8724,13 @@
         <v>7</v>
       </c>
       <c r="C584">
-        <v>0.16885596172325429</v>
+        <v>0.13913597972972969</v>
       </c>
       <c r="D584">
-        <v>0.18011302583813801</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14841171171171169</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>48</v>
       </c>
@@ -8744,13 +8738,13 @@
         <v>8</v>
       </c>
       <c r="C585">
-        <v>0.1821711923446509</v>
+        <v>0.15441908783783789</v>
       </c>
       <c r="D585">
-        <v>0.19431593850096091</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16471369369369371</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>48</v>
       </c>
@@ -8758,13 +8752,13 @@
         <v>9</v>
       </c>
       <c r="C586">
-        <v>0.1650057214926329</v>
+        <v>0.17290337837837841</v>
       </c>
       <c r="D586">
-        <v>0.17600610292547511</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18443027027027031</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>48</v>
       </c>
@@ -8772,13 +8766,13 @@
         <v>10</v>
       </c>
       <c r="C587">
-        <v>0.159140715086483</v>
+        <v>0.17583277027027031</v>
       </c>
       <c r="D587">
-        <v>0.16975009609224859</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18755495495495489</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>48</v>
       </c>
@@ -8786,13 +8780,13 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>0.1515299247277386</v>
+        <v>0.1846179054054054</v>
       </c>
       <c r="D588">
-        <v>0.1616319197095879</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19692576576576579</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>48</v>
       </c>
@@ -8800,13 +8794,13 @@
         <v>12</v>
       </c>
       <c r="C589">
-        <v>0.14978692745035241</v>
+        <v>0.18193682432432429</v>
       </c>
       <c r="D589">
-        <v>0.1597727226137092</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19406594594594601</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>49</v>
       </c>
@@ -8814,13 +8808,13 @@
         <v>1</v>
       </c>
       <c r="C590">
-        <v>0.16527873021853809</v>
+        <v>0.13631346997300939</v>
       </c>
       <c r="D590">
-        <v>0.1762973122331073</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14540103463787671</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>49</v>
       </c>
@@ -8828,13 +8822,13 @@
         <v>2</v>
       </c>
       <c r="C591">
-        <v>0.1694072626224567</v>
+        <v>0.14349759615384611</v>
       </c>
       <c r="D591">
-        <v>0.1807010801306205</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15306410256410261</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>49</v>
       </c>
@@ -8842,13 +8836,13 @@
         <v>3</v>
       </c>
       <c r="C592">
-        <v>0.17214586473247931</v>
+        <v>0.13152884615384611</v>
       </c>
       <c r="D592">
-        <v>0.18362225571464461</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1402974358974359</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>49</v>
       </c>
@@ -8856,13 +8850,13 @@
         <v>4</v>
       </c>
       <c r="C593">
-        <v>0.16291788338357199</v>
+        <v>0.14410463056680159</v>
       </c>
       <c r="D593">
-        <v>0.17377907560914341</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15371160593792171</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>49</v>
       </c>
@@ -8870,13 +8864,13 @@
         <v>5</v>
       </c>
       <c r="C594">
-        <v>0.1653571966842502</v>
+        <v>0.13575385880566801</v>
       </c>
       <c r="D594">
-        <v>0.17638100979653359</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14480411605937921</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>49</v>
       </c>
@@ -8884,13 +8878,13 @@
         <v>6</v>
       </c>
       <c r="C595">
-        <v>0.16457029483798041</v>
+        <v>0.1396201501349528</v>
       </c>
       <c r="D595">
-        <v>0.1755416478271791</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14892816014394961</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>49</v>
       </c>
@@ -8898,13 +8892,13 @@
         <v>7</v>
       </c>
       <c r="C596">
-        <v>0.17444967501883951</v>
+        <v>0.14703654267881239</v>
       </c>
       <c r="D596">
-        <v>0.1860796533534288</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1568389788574</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>49</v>
       </c>
@@ -8912,13 +8906,13 @@
         <v>8</v>
       </c>
       <c r="C597">
-        <v>0.19512384608138661</v>
+        <v>0.16441713056680171</v>
       </c>
       <c r="D597">
-        <v>0.20813210248681241</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17537827260458841</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>49</v>
       </c>
@@ -8926,13 +8920,13 @@
         <v>9</v>
       </c>
       <c r="C598">
-        <v>0.20335140354182371</v>
+        <v>0.16257182017543861</v>
       </c>
       <c r="D598">
-        <v>0.21690816377794531</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1734099415204679</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>49</v>
       </c>
@@ -8940,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="C599">
-        <v>0.1984938300678222</v>
+        <v>0.15445559210526319</v>
       </c>
       <c r="D599">
-        <v>0.21172675207234359</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1647526315789474</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>49</v>
       </c>
@@ -8954,13 +8948,13 @@
         <v>11</v>
       </c>
       <c r="C600">
-        <v>0.19283275244913339</v>
+        <v>0.1476283738191633</v>
       </c>
       <c r="D600">
-        <v>0.2056882692790756</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15747026540710751</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>49</v>
       </c>
@@ -8968,13 +8962,13 @@
         <v>12</v>
       </c>
       <c r="C601">
-        <v>0.1749462603617182</v>
+        <v>0.13620044703103909</v>
       </c>
       <c r="D601">
-        <v>0.18660934438583271</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14528047683310841</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>50</v>
       </c>
@@ -8982,13 +8976,13 @@
         <v>1</v>
       </c>
       <c r="C602">
-        <v>0.1674458165322581</v>
+        <v>0.16274665733830851</v>
       </c>
       <c r="D602">
-        <v>0.178608870967742</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17359643449419571</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>50</v>
       </c>
@@ -8996,13 +8990,13 @@
         <v>2</v>
       </c>
       <c r="C603">
-        <v>0.18468027553763439</v>
+        <v>0.17334802549751241</v>
       </c>
       <c r="D603">
-        <v>0.19699229390681</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18490456053067991</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>50</v>
       </c>
@@ -9010,13 +9004,13 @@
         <v>3</v>
       </c>
       <c r="C604">
-        <v>0.1625694724462366</v>
+        <v>0.1702695118159204</v>
       </c>
       <c r="D604">
-        <v>0.1734074372759857</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1816208126036484</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>50</v>
       </c>
@@ -9024,13 +9018,13 @@
         <v>4</v>
       </c>
       <c r="C605">
-        <v>0.1563480342741935</v>
+        <v>0.1671065764925373</v>
       </c>
       <c r="D605">
-        <v>0.16677123655913981</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1782470149253732</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>50</v>
       </c>
@@ -9038,13 +9032,13 @@
         <v>5</v>
       </c>
       <c r="C606">
-        <v>0.14031199596774191</v>
+        <v>0.147586131840796</v>
       </c>
       <c r="D606">
-        <v>0.14966612903225809</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15742520729684911</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>50</v>
       </c>
@@ -9052,13 +9046,13 @@
         <v>6</v>
       </c>
       <c r="C607">
-        <v>0.13717288306451611</v>
+        <v>0.14161333955223879</v>
       </c>
       <c r="D607">
-        <v>0.14631774193548391</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1510542288557214</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>50</v>
       </c>
@@ -9066,13 +9060,13 @@
         <v>7</v>
       </c>
       <c r="C608">
-        <v>0.1371765793010753</v>
+        <v>0.1475228544776119</v>
       </c>
       <c r="D608">
-        <v>0.14632168458781361</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1573577114427861</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>50</v>
       </c>
@@ -9080,13 +9074,13 @@
         <v>8</v>
       </c>
       <c r="C609">
-        <v>0.15836651545698921</v>
+        <v>0.17371385261194031</v>
       </c>
       <c r="D609">
-        <v>0.16892428315412189</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18529477611940301</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>50</v>
       </c>
@@ -9094,13 +9088,13 @@
         <v>9</v>
       </c>
       <c r="C610">
-        <v>0.1526003864247312</v>
+        <v>0.16019542910447759</v>
       </c>
       <c r="D610">
-        <v>0.1627737455197133</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17087512437810951</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>50</v>
       </c>
@@ -9108,13 +9102,13 @@
         <v>10</v>
       </c>
       <c r="C611">
-        <v>0.15159677419354839</v>
+        <v>0.1658470149253731</v>
       </c>
       <c r="D611">
-        <v>0.16170322580645161</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1769034825870647</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>50</v>
       </c>
@@ -9122,13 +9116,13 @@
         <v>11</v>
       </c>
       <c r="C612">
-        <v>0.14262373991935481</v>
+        <v>0.16852922885572141</v>
       </c>
       <c r="D612">
-        <v>0.15213198924731181</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17976451077943609</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>50</v>
       </c>
@@ -9136,518 +9130,182 @@
         <v>12</v>
       </c>
       <c r="C613">
-        <v>0.15954637096774191</v>
+        <v>0.17127231032338311</v>
       </c>
       <c r="D613">
-        <v>0.17018279569892469</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18269046434494199</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B614">
         <v>1</v>
       </c>
       <c r="C614">
-        <v>0.18036638513513509</v>
+        <v>0.1616321517412935</v>
       </c>
       <c r="D614">
-        <v>0.1923908108108108</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17240762852404651</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B615">
         <v>2</v>
       </c>
       <c r="C615">
-        <v>0.1807597972972973</v>
+        <v>0.17836054104477611</v>
       </c>
       <c r="D615">
-        <v>0.1928104504504505</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.19025124378109451</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B616">
         <v>3</v>
       </c>
       <c r="C616">
-        <v>0.18444476351351349</v>
+        <v>0.15984996890547259</v>
       </c>
       <c r="D616">
-        <v>0.1967410810810811</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.17050663349917081</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B617">
         <v>4</v>
       </c>
       <c r="C617">
-        <v>0.16612939189189191</v>
+        <v>0.1534490049751244</v>
       </c>
       <c r="D617">
-        <v>0.1772046846846847</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16367893864013269</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B618">
         <v>5</v>
       </c>
       <c r="C618">
-        <v>0.14441739864864861</v>
+        <v>0.13943299129353229</v>
       </c>
       <c r="D618">
-        <v>0.15404522522522521</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1487285240464345</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B619">
         <v>6</v>
       </c>
       <c r="C619">
-        <v>0.1366388513513514</v>
+        <v>0.13799906716417909</v>
       </c>
       <c r="D619">
-        <v>0.14574810810810809</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.14719900497512439</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B620">
         <v>7</v>
       </c>
       <c r="C620">
-        <v>0.13913597972972969</v>
+        <v>0.14209965796019899</v>
       </c>
       <c r="D620">
-        <v>0.14841171171171169</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.15157296849087901</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B621">
         <v>8</v>
       </c>
       <c r="C621">
-        <v>0.15441908783783789</v>
+        <v>0.16167304104477609</v>
       </c>
       <c r="D621">
-        <v>0.16471369369369371</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1724512437810945</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B622">
         <v>9</v>
       </c>
       <c r="C622">
-        <v>0.17290337837837841</v>
+        <v>0.15902829601990051</v>
       </c>
       <c r="D622">
-        <v>0.18443027027027031</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16963018242122721</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B623">
         <v>10</v>
       </c>
       <c r="C623">
-        <v>0.17583277027027031</v>
+        <v>0.15266775497512439</v>
       </c>
       <c r="D623">
-        <v>0.18755495495495489</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.16284560530679931</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B624">
         <v>11</v>
       </c>
       <c r="C624">
-        <v>0.1846179054054054</v>
+        <v>0.13915220771144279</v>
       </c>
       <c r="D624">
-        <v>0.19692576576576579</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1484290215588723</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B625">
         <v>12</v>
       </c>
       <c r="C625">
-        <v>0.18193682432432429</v>
+        <v>0.15599300373134331</v>
       </c>
       <c r="D625">
-        <v>0.19406594594594601</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A626" t="s">
-        <v>52</v>
-      </c>
-      <c r="B626">
-        <v>1</v>
-      </c>
-      <c r="C626">
-        <v>0.13631346997300939</v>
-      </c>
-      <c r="D626">
-        <v>0.14540103463787671</v>
-      </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A627" t="s">
-        <v>52</v>
-      </c>
-      <c r="B627">
-        <v>2</v>
-      </c>
-      <c r="C627">
-        <v>0.14349759615384611</v>
-      </c>
-      <c r="D627">
-        <v>0.15306410256410261</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A628" t="s">
-        <v>52</v>
-      </c>
-      <c r="B628">
-        <v>3</v>
-      </c>
-      <c r="C628">
-        <v>0.13152884615384611</v>
-      </c>
-      <c r="D628">
-        <v>0.1402974358974359</v>
-      </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A629" t="s">
-        <v>52</v>
-      </c>
-      <c r="B629">
-        <v>4</v>
-      </c>
-      <c r="C629">
-        <v>0.14410463056680159</v>
-      </c>
-      <c r="D629">
-        <v>0.15371160593792171</v>
-      </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A630" t="s">
-        <v>52</v>
-      </c>
-      <c r="B630">
-        <v>5</v>
-      </c>
-      <c r="C630">
-        <v>0.13575385880566801</v>
-      </c>
-      <c r="D630">
-        <v>0.14480411605937921</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A631" t="s">
-        <v>52</v>
-      </c>
-      <c r="B631">
-        <v>6</v>
-      </c>
-      <c r="C631">
-        <v>0.1396201501349528</v>
-      </c>
-      <c r="D631">
-        <v>0.14892816014394961</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A632" t="s">
-        <v>52</v>
-      </c>
-      <c r="B632">
-        <v>7</v>
-      </c>
-      <c r="C632">
-        <v>0.14703654267881239</v>
-      </c>
-      <c r="D632">
-        <v>0.1568389788574</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A633" t="s">
-        <v>52</v>
-      </c>
-      <c r="B633">
-        <v>8</v>
-      </c>
-      <c r="C633">
-        <v>0.16441713056680171</v>
-      </c>
-      <c r="D633">
-        <v>0.17537827260458841</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A634" t="s">
-        <v>52</v>
-      </c>
-      <c r="B634">
-        <v>9</v>
-      </c>
-      <c r="C634">
-        <v>0.16257182017543861</v>
-      </c>
-      <c r="D634">
-        <v>0.1734099415204679</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A635" t="s">
-        <v>52</v>
-      </c>
-      <c r="B635">
-        <v>10</v>
-      </c>
-      <c r="C635">
-        <v>0.15445559210526319</v>
-      </c>
-      <c r="D635">
-        <v>0.1647526315789474</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A636" t="s">
-        <v>52</v>
-      </c>
-      <c r="B636">
-        <v>11</v>
-      </c>
-      <c r="C636">
-        <v>0.1476283738191633</v>
-      </c>
-      <c r="D636">
-        <v>0.15747026540710751</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A637" t="s">
-        <v>52</v>
-      </c>
-      <c r="B637">
-        <v>12</v>
-      </c>
-      <c r="C637">
-        <v>0.13620044703103909</v>
-      </c>
-      <c r="D637">
-        <v>0.14528047683310841</v>
-      </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A638" t="s">
-        <v>53</v>
-      </c>
-      <c r="B638">
-        <v>1</v>
-      </c>
-      <c r="C638">
-        <v>0.16274665733830851</v>
-      </c>
-      <c r="D638">
-        <v>0.17359643449419571</v>
-      </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A639" t="s">
-        <v>53</v>
-      </c>
-      <c r="B639">
-        <v>2</v>
-      </c>
-      <c r="C639">
-        <v>0.17334802549751241</v>
-      </c>
-      <c r="D639">
-        <v>0.18490456053067991</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A640" t="s">
-        <v>53</v>
-      </c>
-      <c r="B640">
-        <v>3</v>
-      </c>
-      <c r="C640">
-        <v>0.1702695118159204</v>
-      </c>
-      <c r="D640">
-        <v>0.1816208126036484</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A641" t="s">
-        <v>53</v>
-      </c>
-      <c r="B641">
-        <v>4</v>
-      </c>
-      <c r="C641">
-        <v>0.1671065764925373</v>
-      </c>
-      <c r="D641">
-        <v>0.1782470149253732</v>
-      </c>
-    </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A642" t="s">
-        <v>53</v>
-      </c>
-      <c r="B642">
-        <v>5</v>
-      </c>
-      <c r="C642">
-        <v>0.147586131840796</v>
-      </c>
-      <c r="D642">
-        <v>0.15742520729684911</v>
-      </c>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A643" t="s">
-        <v>53</v>
-      </c>
-      <c r="B643">
-        <v>6</v>
-      </c>
-      <c r="C643">
-        <v>0.14161333955223879</v>
-      </c>
-      <c r="D643">
-        <v>0.1510542288557214</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A644" t="s">
-        <v>53</v>
-      </c>
-      <c r="B644">
-        <v>7</v>
-      </c>
-      <c r="C644">
-        <v>0.1475228544776119</v>
-      </c>
-      <c r="D644">
-        <v>0.1573577114427861</v>
-      </c>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A645" t="s">
-        <v>53</v>
-      </c>
-      <c r="B645">
-        <v>8</v>
-      </c>
-      <c r="C645">
-        <v>0.17371385261194031</v>
-      </c>
-      <c r="D645">
-        <v>0.18529477611940301</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A646" t="s">
-        <v>53</v>
-      </c>
-      <c r="B646">
-        <v>9</v>
-      </c>
-      <c r="C646">
-        <v>0.16019542910447759</v>
-      </c>
-      <c r="D646">
-        <v>0.17087512437810951</v>
-      </c>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A647" t="s">
-        <v>53</v>
-      </c>
-      <c r="B647">
-        <v>10</v>
-      </c>
-      <c r="C647">
-        <v>0.1658470149253731</v>
-      </c>
-      <c r="D647">
-        <v>0.1769034825870647</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A648" t="s">
-        <v>53</v>
-      </c>
-      <c r="B648">
-        <v>11</v>
-      </c>
-      <c r="C648">
-        <v>0.16852922885572141</v>
-      </c>
-      <c r="D648">
-        <v>0.17976451077943609</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A649" t="s">
-        <v>53</v>
-      </c>
-      <c r="B649">
-        <v>12</v>
-      </c>
-      <c r="C649">
-        <v>0.17127231032338311</v>
-      </c>
-      <c r="D649">
-        <v>0.18269046434494199</v>
+        <v>0.16639253731343279</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D649" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D625" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>